--- a/Boletin_ Epi_Pereira/Datos/2023_831_datos_basicos_individuales.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/2023_831_datos_basicos_individuales.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1696">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1373,6 +1373,72 @@
     <t>18/02/2023</t>
   </si>
   <si>
+    <t>1787700827</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>OSORNO</t>
+  </si>
+  <si>
+    <t>POSSO</t>
+  </si>
+  <si>
+    <t>1094954679</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>MANZANA B CASA 26-57</t>
+  </si>
+  <si>
+    <t>96220</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3146573694</t>
+  </si>
+  <si>
+    <t>23/02/1997</t>
+  </si>
+  <si>
+    <t>01/03/2023</t>
+  </si>
+  <si>
+    <t>MARIA JOSE ARENAS</t>
+  </si>
+  <si>
+    <t>8406351</t>
+  </si>
+  <si>
+    <t>27/02/2023</t>
+  </si>
+  <si>
+    <t>8908029789</t>
+  </si>
+  <si>
+    <t>ESE HOSPITAL SAN JOSE</t>
+  </si>
+  <si>
+    <t>CALDAS</t>
+  </si>
+  <si>
+    <t>VITERBO</t>
+  </si>
+  <si>
     <t>MARICELI</t>
   </si>
   <si>
@@ -1409,72 +1475,6 @@
     <t>BELEN DE UMBRIA</t>
   </si>
   <si>
-    <t>1787700827</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>OSORNO</t>
-  </si>
-  <si>
-    <t>POSSO</t>
-  </si>
-  <si>
-    <t>1094954679</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>877</t>
-  </si>
-  <si>
-    <t>NO APLICA</t>
-  </si>
-  <si>
-    <t>MANZANA B CASA 26-57</t>
-  </si>
-  <si>
-    <t>96220</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>3146573694</t>
-  </si>
-  <si>
-    <t>23/02/1997</t>
-  </si>
-  <si>
-    <t>01/03/2023</t>
-  </si>
-  <si>
-    <t>MARIA JOSE ARENAS</t>
-  </si>
-  <si>
-    <t>8406351</t>
-  </si>
-  <si>
-    <t>27/02/2023</t>
-  </si>
-  <si>
-    <t>8908029789</t>
-  </si>
-  <si>
-    <t>ESE HOSPITAL SAN JOSE</t>
-  </si>
-  <si>
-    <t>CALDAS</t>
-  </si>
-  <si>
-    <t>VITERBO</t>
-  </si>
-  <si>
     <t>BERMUDEZ</t>
   </si>
   <si>
@@ -2210,6 +2210,42 @@
     <t>00</t>
   </si>
   <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>1104951990</t>
+  </si>
+  <si>
+    <t>FINCA EL JARDIN ALTAGRACIA VIA ALEGRIAS</t>
+  </si>
+  <si>
+    <t>EPSS37</t>
+  </si>
+  <si>
+    <t>3178280056</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>3145918091</t>
+  </si>
+  <si>
+    <t>000000000000</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL</t>
+  </si>
+  <si>
     <t>THOMAS</t>
   </si>
   <si>
@@ -2225,9 +2261,6 @@
     <t>MANZANA 9 CASA 133</t>
   </si>
   <si>
-    <t>EPSS37</t>
-  </si>
-  <si>
     <t>05/02/2023</t>
   </si>
   <si>
@@ -2237,39 +2270,6 @@
     <t>21/02/2013</t>
   </si>
   <si>
-    <t>SECRETARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
-    <t>3145918091</t>
-  </si>
-  <si>
-    <t>000000000000</t>
-  </si>
-  <si>
-    <t>SECRETARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>1104951990</t>
-  </si>
-  <si>
-    <t>FINCA EL JARDIN ALTAGRACIA VIA ALEGRIAS</t>
-  </si>
-  <si>
-    <t>3178280056</t>
-  </si>
-  <si>
-    <t>10/09/2013</t>
-  </si>
-  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
@@ -2732,6 +2732,33 @@
     <t>ALEJANDRA RODRIGUEZ RAMIREZ</t>
   </si>
   <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>BETANCOURT</t>
+  </si>
+  <si>
+    <t>1193107890</t>
+  </si>
+  <si>
+    <t>AV 30 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>AV 30 DE AGOSTO # 24 - 13</t>
+  </si>
+  <si>
+    <t>3123070875</t>
+  </si>
+  <si>
+    <t>02/03/2002</t>
+  </si>
+  <si>
+    <t>MARISOL TABARES GOMEZ</t>
+  </si>
+  <si>
+    <t>3218529085</t>
+  </si>
+  <si>
     <t>VALENTINA</t>
   </si>
   <si>
@@ -2762,33 +2789,6 @@
     <t>17/04/2023</t>
   </si>
   <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>BETANCOURT</t>
-  </si>
-  <si>
-    <t>1193107890</t>
-  </si>
-  <si>
-    <t>AV 30 DE AGOSTO</t>
-  </si>
-  <si>
-    <t>AV 30 DE AGOSTO # 24 - 13</t>
-  </si>
-  <si>
-    <t>3123070875</t>
-  </si>
-  <si>
-    <t>02/03/2002</t>
-  </si>
-  <si>
-    <t>MARISOL TABARES GOMEZ</t>
-  </si>
-  <si>
-    <t>3218529085</t>
-  </si>
-  <si>
     <t>JOHAN</t>
   </si>
   <si>
@@ -2876,144 +2876,258 @@
     <t>16/02/2011</t>
   </si>
   <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>YULIE</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
+    <t>1088250397</t>
+  </si>
+  <si>
+    <t>CALLE 26 # 2-70 PRIMERO DE MAYO</t>
+  </si>
+  <si>
+    <t>3207639634</t>
+  </si>
+  <si>
+    <t>21/06/2005</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>FRANCESKI</t>
+  </si>
+  <si>
+    <t>MAYORA</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>1088355964</t>
+  </si>
+  <si>
+    <t>CARRERA 2 # 10-02 SALAZAR LONDOÑO</t>
+  </si>
+  <si>
+    <t>EPS037</t>
+  </si>
+  <si>
+    <t>24/03/2023</t>
+  </si>
+  <si>
+    <t>3127726913</t>
+  </si>
+  <si>
+    <t>23/09/2013</t>
+  </si>
+  <si>
+    <t>SECRETARA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>LEDESMA</t>
+  </si>
+  <si>
+    <t>1090338103</t>
+  </si>
+  <si>
+    <t>CARRERA 11 #24-52 EL LAGO</t>
+  </si>
+  <si>
+    <t>12/02/2023</t>
+  </si>
+  <si>
+    <t>3234077820</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE SLAUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>1089611812</t>
+  </si>
+  <si>
+    <t>MANZANA 11 CASA 298 LAS MERCEDES</t>
+  </si>
+  <si>
+    <t>3023100821</t>
+  </si>
+  <si>
+    <t>25/05/2011</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE SALD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
+    <t>OSSA</t>
+  </si>
+  <si>
+    <t>1089932133</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>CALLE 24 # 2-26</t>
+  </si>
+  <si>
+    <t>3118487150</t>
+  </si>
+  <si>
+    <t>28/01/2004</t>
+  </si>
+  <si>
+    <t>HELEN</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>1089939395</t>
+  </si>
+  <si>
+    <t>CALLE 26 #2-70 PRIMERO DE MAYO</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>SECRATARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>1115859979</t>
+  </si>
+  <si>
+    <t>CALLE 28 # 9-47 VICTORIA</t>
+  </si>
+  <si>
+    <t>EPS025</t>
+  </si>
+  <si>
+    <t>3167069647</t>
+  </si>
+  <si>
+    <t>17/02/2012</t>
+  </si>
+  <si>
+    <t>CAMILO</t>
+  </si>
+  <si>
+    <t>TORO</t>
+  </si>
+  <si>
+    <t>1089616314</t>
+  </si>
+  <si>
+    <t>CARRERA 8 # 2 E- 34 ALFONSO LOPEZ</t>
+  </si>
+  <si>
+    <t>3148584558</t>
+  </si>
+  <si>
+    <t>18/09/2012</t>
+  </si>
+  <si>
+    <t>ALAN</t>
+  </si>
+  <si>
+    <t>1088362469</t>
+  </si>
+  <si>
+    <t>CARRERA 3 # 24-68 APARTAMENTO 50 CENTRO</t>
+  </si>
+  <si>
+    <t>3122377427</t>
+  </si>
+  <si>
+    <t>30/05/2012</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE SALUD Y SEGURIDAD SOCIAL DE PEREIRA</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>BESABETH</t>
+  </si>
+  <si>
+    <t>1088355966</t>
+  </si>
+  <si>
+    <t>CARRERA 2 # 10- 02 SALAZAR LONDOÑO</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>JENIFER</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>1093984804</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>TABORDA</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
+    <t>1088327126</t>
+  </si>
+  <si>
+    <t>CALLE 24 #2-26 SAN JORGE</t>
+  </si>
+  <si>
+    <t>3205891038</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
     <t>JAIME</t>
   </si>
   <si>
-    <t>TORO</t>
-  </si>
-  <si>
     <t>1089606257</t>
   </si>
   <si>
     <t>CARRERA 8 # 2 E 34 ALFONSO LOPEZ</t>
   </si>
   <si>
-    <t>3148584558</t>
-  </si>
-  <si>
     <t>17/07/2009</t>
   </si>
   <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>YULIE</t>
-  </si>
-  <si>
-    <t>BUENO</t>
-  </si>
-  <si>
-    <t>1088250397</t>
-  </si>
-  <si>
-    <t>CALLE 26 # 2-70 PRIMERO DE MAYO</t>
-  </si>
-  <si>
-    <t>3207639634</t>
-  </si>
-  <si>
-    <t>21/06/2005</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>FRANCESKI</t>
-  </si>
-  <si>
-    <t>MAYORA</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>1088355964</t>
-  </si>
-  <si>
-    <t>CARRERA 2 # 10-02 SALAZAR LONDOÑO</t>
-  </si>
-  <si>
-    <t>EPS037</t>
-  </si>
-  <si>
-    <t>24/03/2023</t>
-  </si>
-  <si>
-    <t>3127726913</t>
-  </si>
-  <si>
-    <t>23/09/2013</t>
-  </si>
-  <si>
-    <t>SECRETARA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>LEDESMA</t>
-  </si>
-  <si>
-    <t>1090338103</t>
-  </si>
-  <si>
-    <t>CARRERA 11 #24-52 EL LAGO</t>
-  </si>
-  <si>
-    <t>12/02/2023</t>
-  </si>
-  <si>
-    <t>3234077820</t>
-  </si>
-  <si>
-    <t>03/03/2014</t>
-  </si>
-  <si>
-    <t>SECRETARIA DE SLAUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>1089611812</t>
-  </si>
-  <si>
-    <t>MANZANA 11 CASA 298 LAS MERCEDES</t>
-  </si>
-  <si>
-    <t>3023100821</t>
-  </si>
-  <si>
-    <t>25/05/2011</t>
-  </si>
-  <si>
-    <t>SECRETARIA DE SALD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
-    <t>GIRALDO</t>
-  </si>
-  <si>
-    <t>OSSA</t>
-  </si>
-  <si>
-    <t>1089932133</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>CALLE 24 # 2-26</t>
-  </si>
-  <si>
-    <t>3118487150</t>
-  </si>
-  <si>
-    <t>28/01/2004</t>
-  </si>
-  <si>
     <t>PAULINA</t>
   </si>
   <si>
@@ -3092,120 +3206,6 @@
     <t>30/10/2017</t>
   </si>
   <si>
-    <t>HELEN</t>
-  </si>
-  <si>
-    <t>GONZALES</t>
-  </si>
-  <si>
-    <t>1089939395</t>
-  </si>
-  <si>
-    <t>CALLE 26 #2-70 PRIMERO DE MAYO</t>
-  </si>
-  <si>
-    <t>22/11/2013</t>
-  </si>
-  <si>
-    <t>SECRATARIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>1115859979</t>
-  </si>
-  <si>
-    <t>CALLE 28 # 9-47 VICTORIA</t>
-  </si>
-  <si>
-    <t>EPS025</t>
-  </si>
-  <si>
-    <t>3167069647</t>
-  </si>
-  <si>
-    <t>17/02/2012</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>BESABETH</t>
-  </si>
-  <si>
-    <t>1088355966</t>
-  </si>
-  <si>
-    <t>CARRERA 2 # 10- 02 SALAZAR LONDOÑO</t>
-  </si>
-  <si>
-    <t>01/09/2015</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>1093984804</t>
-  </si>
-  <si>
-    <t>07/12/2010</t>
-  </si>
-  <si>
-    <t>CAMILO</t>
-  </si>
-  <si>
-    <t>1089616314</t>
-  </si>
-  <si>
-    <t>CARRERA 8 # 2 E- 34 ALFONSO LOPEZ</t>
-  </si>
-  <si>
-    <t>18/09/2012</t>
-  </si>
-  <si>
-    <t>TABORDA</t>
-  </si>
-  <si>
-    <t>MAYA</t>
-  </si>
-  <si>
-    <t>1088327126</t>
-  </si>
-  <si>
-    <t>CALLE 24 #2-26 SAN JORGE</t>
-  </si>
-  <si>
-    <t>3205891038</t>
-  </si>
-  <si>
-    <t>02/06/2013</t>
-  </si>
-  <si>
-    <t>ALAN</t>
-  </si>
-  <si>
-    <t>1088362469</t>
-  </si>
-  <si>
-    <t>CARRERA 3 # 24-68 APARTAMENTO 50 CENTRO</t>
-  </si>
-  <si>
-    <t>3122377427</t>
-  </si>
-  <si>
-    <t>30/05/2012</t>
-  </si>
-  <si>
-    <t>SECRETARIA DE SALUD Y SEGURIDAD SOCIAL DE PEREIRA</t>
-  </si>
-  <si>
     <t>PARAMO</t>
   </si>
   <si>
@@ -3257,6 +3257,36 @@
     <t>320769511</t>
   </si>
   <si>
+    <t>ROBLEDO</t>
+  </si>
+  <si>
+    <t>PULGARIN</t>
+  </si>
+  <si>
+    <t>1192771619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	CR 18B 29 54	</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>3137167796</t>
+  </si>
+  <si>
+    <t>18/07/2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANIA VANESSA HOYOS MUÑOZ </t>
+  </si>
+  <si>
+    <t>3161660</t>
+  </si>
+  <si>
+    <t>08/06/2023</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -3281,36 +3311,6 @@
     <t>19/04/2023</t>
   </si>
   <si>
-    <t>ROBLEDO</t>
-  </si>
-  <si>
-    <t>PULGARIN</t>
-  </si>
-  <si>
-    <t>1192771619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	CR 18B 29 54	</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>3137167796</t>
-  </si>
-  <si>
-    <t>18/07/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANIA VANESSA HOYOS MUÑOZ </t>
-  </si>
-  <si>
-    <t>3161660</t>
-  </si>
-  <si>
-    <t>08/06/2023</t>
-  </si>
-  <si>
     <t>REINA</t>
   </si>
   <si>
@@ -3704,6 +3704,33 @@
     <t>04/05/2023</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>TAPASCO</t>
+  </si>
+  <si>
+    <t>1085719542</t>
+  </si>
+  <si>
+    <t>COLINAS DEL TRIUNFO</t>
+  </si>
+  <si>
+    <t>MANZANA 4 CASA 30</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>3226544331</t>
+  </si>
+  <si>
+    <t>25/03/2009</t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
     <t>6600100208</t>
   </si>
   <si>
@@ -3731,33 +3758,6 @@
     <t>INSTITUTO DE DIAGNOSTICO MEDICO SA</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>TAPASCO</t>
-  </si>
-  <si>
-    <t>1085719542</t>
-  </si>
-  <si>
-    <t>COLINAS DEL TRIUNFO</t>
-  </si>
-  <si>
-    <t>MANZANA 4 CASA 30</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>3226544331</t>
-  </si>
-  <si>
-    <t>25/03/2009</t>
-  </si>
-  <si>
-    <t>05/05/2023</t>
-  </si>
-  <si>
     <t>03/05/2023</t>
   </si>
   <si>
@@ -4328,30 +4328,30 @@
     <t>1118258531</t>
   </si>
   <si>
+    <t>CALLE 25 # 2B-13 SAN JORGE</t>
+  </si>
+  <si>
+    <t>3235139400</t>
+  </si>
+  <si>
+    <t>17/10/2010</t>
+  </si>
+  <si>
+    <t>NORMA CECILIA MONCADA GRISALES</t>
+  </si>
+  <si>
+    <t>3135700</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
     <t>CALLE 15 # 2B-13 SAN JORGE</t>
   </si>
   <si>
-    <t>3235139400</t>
-  </si>
-  <si>
-    <t>17/10/2010</t>
-  </si>
-  <si>
-    <t>NORMA CECILIA MONCADA GRISALES</t>
-  </si>
-  <si>
-    <t>3135700</t>
-  </si>
-  <si>
     <t>01/06/2023</t>
   </si>
   <si>
-    <t>CALLE 25 # 2B-13 SAN JORGE</t>
-  </si>
-  <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAMILA </t>
   </si>
   <si>
@@ -4382,6 +4382,48 @@
     <t>MARIA DEL PILAR NAVA</t>
   </si>
   <si>
+    <t>CAROL</t>
+  </si>
+  <si>
+    <t>1002802575</t>
+  </si>
+  <si>
+    <t>LA BELLA</t>
+  </si>
+  <si>
+    <t>VEREDA MUNDO NUEVO SECTOR LOS LAGOS</t>
+  </si>
+  <si>
+    <t>3218479375</t>
+  </si>
+  <si>
+    <t>19/05/2000</t>
+  </si>
+  <si>
+    <t>BIBIANA</t>
+  </si>
+  <si>
+    <t>MOTATO</t>
+  </si>
+  <si>
+    <t>1054918714</t>
+  </si>
+  <si>
+    <t>CALLE 56 # 16-21 SAN DIEGO</t>
+  </si>
+  <si>
+    <t>3233375583</t>
+  </si>
+  <si>
+    <t>27/08/1988</t>
+  </si>
+  <si>
+    <t>VALENTINA PUERTA</t>
+  </si>
+  <si>
+    <t>3401672</t>
+  </si>
+  <si>
     <t>QUERUBIN</t>
   </si>
   <si>
@@ -4406,30 +4448,6 @@
     <t>VICENTE ALBA</t>
   </si>
   <si>
-    <t>3401672</t>
-  </si>
-  <si>
-    <t>BIBIANA</t>
-  </si>
-  <si>
-    <t>MOTATO</t>
-  </si>
-  <si>
-    <t>1054918714</t>
-  </si>
-  <si>
-    <t>CALLE 56 # 16-21 SAN DIEGO</t>
-  </si>
-  <si>
-    <t>3233375583</t>
-  </si>
-  <si>
-    <t>27/08/1988</t>
-  </si>
-  <si>
-    <t>VALENTINA PUERTA</t>
-  </si>
-  <si>
     <t>DUQUE</t>
   </si>
   <si>
@@ -4451,24 +4469,6 @@
     <t>HECTOR GARCIA</t>
   </si>
   <si>
-    <t>CAROL</t>
-  </si>
-  <si>
-    <t>1002802575</t>
-  </si>
-  <si>
-    <t>LA BELLA</t>
-  </si>
-  <si>
-    <t>VEREDA MUNDO NUEVO SECTOR LOS LAGOS</t>
-  </si>
-  <si>
-    <t>3218479375</t>
-  </si>
-  <si>
-    <t>19/05/2000</t>
-  </si>
-  <si>
     <t>05/06/2023</t>
   </si>
   <si>
@@ -4622,6 +4622,57 @@
     <t>15/06/2023</t>
   </si>
   <si>
+    <t>5056800634</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>1089646427</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>PTO GAITAN</t>
+  </si>
+  <si>
+    <t>BARRIO KENEDY CASA 8 -80</t>
+  </si>
+  <si>
+    <t>EPSS41</t>
+  </si>
+  <si>
+    <t>3184243483</t>
+  </si>
+  <si>
+    <t>08/11/2022</t>
+  </si>
+  <si>
+    <t>ANGIE LORENA ORTIZ</t>
+  </si>
+  <si>
+    <t>3108179144</t>
+  </si>
+  <si>
+    <t>8220065951</t>
+  </si>
+  <si>
+    <t>CENTRO DE ATENCION PUERTO GAITAN</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN</t>
+  </si>
+  <si>
     <t>MELISSA</t>
   </si>
   <si>
@@ -4664,57 +4715,6 @@
     <t>09/11/2016</t>
   </si>
   <si>
-    <t>5056800634</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>1089646427</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>PTO GAITAN</t>
-  </si>
-  <si>
-    <t>BARRIO KENEDY CASA 8 -80</t>
-  </si>
-  <si>
-    <t>EPSS41</t>
-  </si>
-  <si>
-    <t>3184243483</t>
-  </si>
-  <si>
-    <t>08/11/2022</t>
-  </si>
-  <si>
-    <t>ANGIE LORENA ORTIZ</t>
-  </si>
-  <si>
-    <t>3108179144</t>
-  </si>
-  <si>
-    <t>8220065951</t>
-  </si>
-  <si>
-    <t>CENTRO DE ATENCION PUERTO GAITAN</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PUERTO GAITAN</t>
-  </si>
-  <si>
     <t>ELVIRA</t>
   </si>
   <si>
@@ -4926,6 +4926,180 @@
   </si>
   <si>
     <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>ALEM</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>1085726770</t>
+  </si>
+  <si>
+    <t>SANTA HELENA</t>
+  </si>
+  <si>
+    <t>MANZANA 3 CASA 3</t>
+  </si>
+  <si>
+    <t>3117513099</t>
+  </si>
+  <si>
+    <t>27/01/2022</t>
+  </si>
+  <si>
+    <t>DANIEL ALEJANDRO PARRA SISSIV[C80]</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>OSIAS</t>
+  </si>
+  <si>
+    <t>82362500</t>
+  </si>
+  <si>
+    <t>GUAYABAL</t>
+  </si>
+  <si>
+    <t>MZA 65 LOTE 2 GUAYABAL</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>3244226567</t>
+  </si>
+  <si>
+    <t>01/01/1965</t>
+  </si>
+  <si>
+    <t>23078720301062</t>
+  </si>
+  <si>
+    <t>I500</t>
+  </si>
+  <si>
+    <t>SANTIAGO PULGARIN SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>3103730621</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>TIQUE</t>
+  </si>
+  <si>
+    <t>65739945</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>BELMONTE</t>
+  </si>
+  <si>
+    <t>CARRERA 18 # 98-33 BARRIO BELMONTE</t>
+  </si>
+  <si>
+    <t>22691</t>
+  </si>
+  <si>
+    <t>3002847638</t>
+  </si>
+  <si>
+    <t>12/09/1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA MARCELA CASTAÑO  SISSIV[C80]</t>
+  </si>
+  <si>
+    <t>6063139999</t>
+  </si>
+  <si>
+    <t>JUNIOR</t>
+  </si>
+  <si>
+    <t>OSWALDO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>VEN3948517</t>
+  </si>
+  <si>
+    <t>SANTA TERESITA</t>
+  </si>
+  <si>
+    <t>CALLE 15 # 2-33 PISO 2°</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>3147225891</t>
+  </si>
+  <si>
+    <t>09/04/1994</t>
+  </si>
+  <si>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>1128905665</t>
+  </si>
+  <si>
+    <t>CALLE 29 # 11B-09 CENTRO</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>15/12/2007</t>
+  </si>
+  <si>
+    <t>JEIMY PAOLA TOVAR HOYOS SISSIV[C00]</t>
+  </si>
+  <si>
+    <t>3215891240</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>ANYELINA</t>
+  </si>
+  <si>
+    <t>1085726923</t>
+  </si>
+  <si>
+    <t>MANZANA 7 CASA 3 BARRIO COLINAS DEL TRIUNFO</t>
+  </si>
+  <si>
+    <t>3136714779</t>
+  </si>
+  <si>
+    <t>21/04/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA OCAMPO BUILES  SISSIV[C80]</t>
   </si>
 </sst>
 </file>
@@ -4971,7 +5145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CF155"/>
+  <dimension ref="A1:CF161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9996,34 +10170,37 @@
         <v>452</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>167</v>
+        <v>453</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>89</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>455</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>96</v>
+        <v>459</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>86</v>
@@ -10035,34 +10212,34 @@
         <v>98</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R24" s="0" t="s">
         <v>97</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>457</v>
+        <v>86</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>246</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>329</v>
+        <v>463</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC24" s="0" t="s">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="AD24" s="0" t="s">
         <v>108</v>
@@ -10082,16 +10259,10 @@
       <c r="AJ24" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK24" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM24" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN24" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO24" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP24" s="0" t="s">
@@ -10116,22 +10287,22 @@
         <v>100</v>
       </c>
       <c r="AW24" s="0" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="AX24" s="0" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AY24" s="0" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="AZ24" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BA24" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="BB24" s="0" t="s">
-        <v>459</v>
+        <v>112</v>
       </c>
       <c r="BC24" s="0" t="s">
         <v>86</v>
@@ -10143,25 +10314,25 @@
         <v>113</v>
       </c>
       <c r="BF24" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="BG24" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="BL24" s="0" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="BM24" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="BN24" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="BO24" s="0" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="BP24" s="0" t="s">
-        <v>187</v>
+        <v>471</v>
       </c>
       <c r="BT24" s="0" t="s">
         <v>336</v>
@@ -10170,16 +10341,16 @@
         <v>122</v>
       </c>
       <c r="BV24" s="0" t="s">
-        <v>188</v>
+        <v>472</v>
       </c>
       <c r="BW24" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BX24" s="0" t="s">
-        <v>124</v>
+        <v>473</v>
       </c>
       <c r="BY24" s="0" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="BZ24" s="0" t="s">
         <v>98</v>
@@ -10188,16 +10359,16 @@
         <v>124</v>
       </c>
       <c r="CB24" s="0" t="s">
-        <v>464</v>
+        <v>125</v>
       </c>
       <c r="CC24" s="0" t="s">
-        <v>124</v>
+        <v>473</v>
       </c>
       <c r="CD24" s="0" t="s">
-        <v>125</v>
+        <v>474</v>
       </c>
       <c r="CE24" s="0" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="CF24" s="0">
         <v>0</v>
@@ -10211,37 +10382,34 @@
         <v>452</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>465</v>
+        <v>167</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>89</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>471</v>
+        <v>96</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>86</v>
@@ -10253,34 +10421,34 @@
         <v>98</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>97</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y25" s="0" t="s">
-        <v>246</v>
+        <v>154</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>479</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>475</v>
+        <v>329</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>476</v>
+        <v>178</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="AD25" s="0" t="s">
         <v>108</v>
@@ -10300,10 +10468,16 @@
       <c r="AJ25" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK25" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM25" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN25" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO25" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP25" s="0" t="s">
@@ -10328,22 +10502,22 @@
         <v>100</v>
       </c>
       <c r="AW25" s="0" t="s">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="AX25" s="0" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="AY25" s="0" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="AZ25" s="0" t="s">
         <v>111</v>
       </c>
       <c r="BA25" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="BB25" s="0" t="s">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="BC25" s="0" t="s">
         <v>86</v>
@@ -10355,25 +10529,25 @@
         <v>113</v>
       </c>
       <c r="BF25" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="BG25" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="BL25" s="0" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="BM25" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="BN25" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="BO25" s="0" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="BP25" s="0" t="s">
-        <v>483</v>
+        <v>187</v>
       </c>
       <c r="BT25" s="0" t="s">
         <v>336</v>
@@ -10382,13 +10556,13 @@
         <v>122</v>
       </c>
       <c r="BV25" s="0" t="s">
-        <v>484</v>
+        <v>188</v>
       </c>
       <c r="BW25" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BX25" s="0" t="s">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="BY25" s="0" t="s">
         <v>486</v>
@@ -10400,16 +10574,16 @@
         <v>124</v>
       </c>
       <c r="CB25" s="0" t="s">
-        <v>125</v>
+        <v>486</v>
       </c>
       <c r="CC25" s="0" t="s">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="CD25" s="0" t="s">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="CE25" s="0" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="CF25" s="0">
         <v>0</v>
@@ -10576,7 +10750,7 @@
         <v>493</v>
       </c>
       <c r="BL26" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="BM26" s="0" t="s">
         <v>494</v>
@@ -10624,7 +10798,7 @@
         <v>125</v>
       </c>
       <c r="CE26" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="CF26" s="0">
         <v>0</v>
@@ -11003,7 +11177,7 @@
         <v>522</v>
       </c>
       <c r="BL28" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="BM28" s="0" t="s">
         <v>523</v>
@@ -11051,7 +11225,7 @@
         <v>528</v>
       </c>
       <c r="CE28" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="CF28" s="0">
         <v>0</v>
@@ -11274,7 +11448,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>298</v>
@@ -11397,7 +11571,7 @@
         <v>101</v>
       </c>
       <c r="AX30" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AY30" s="0" t="s">
         <v>511</v>
@@ -11486,7 +11660,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>298</v>
@@ -11609,7 +11783,7 @@
         <v>101</v>
       </c>
       <c r="AX31" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AY31" s="0" t="s">
         <v>407</v>
@@ -11985,7 +12159,7 @@
         <v>86</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Y33" s="0" t="s">
         <v>415</v>
@@ -13714,7 +13888,7 @@
         <v>671</v>
       </c>
       <c r="AA41" s="0" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="AB41" s="0" t="s">
         <v>106</v>
@@ -14944,7 +15118,7 @@
         <v>662</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>87</v>
@@ -14958,6 +15132,9 @@
       <c r="G47" s="0" t="s">
         <v>732</v>
       </c>
+      <c r="H47" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="I47" s="0" t="s">
         <v>733</v>
       </c>
@@ -14971,7 +15148,7 @@
         <v>735</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>181</v>
+        <v>545</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>86</v>
@@ -15016,7 +15193,7 @@
         <v>108</v>
       </c>
       <c r="AF47" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG47" s="0" t="s">
         <v>109</v>
@@ -15061,10 +15238,10 @@
         <v>101</v>
       </c>
       <c r="AX47" s="0" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="AY47" s="0" t="s">
-        <v>738</v>
+        <v>597</v>
       </c>
       <c r="AZ47" s="0" t="s">
         <v>180</v>
@@ -15085,25 +15262,25 @@
         <v>113</v>
       </c>
       <c r="BF47" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="BG47" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="BG47" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="BL47" s="0" t="s">
         <v>557</v>
       </c>
       <c r="BM47" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN47" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN47" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO47" s="0" t="s">
         <v>662</v>
       </c>
       <c r="BP47" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT47" s="0" t="s">
         <v>377</v>
@@ -15112,7 +15289,7 @@
         <v>122</v>
       </c>
       <c r="BV47" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW47" s="0" t="s">
         <v>98</v>
@@ -15153,7 +15330,7 @@
         <v>662</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>87</v>
@@ -15165,25 +15342,22 @@
         <v>731</v>
       </c>
       <c r="G48" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>745</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="J48" s="0" t="s">
         <v>746</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>747</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>545</v>
+        <v>181</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>86</v>
@@ -15213,7 +15387,7 @@
         <v>426</v>
       </c>
       <c r="Z48" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AA48" s="0" t="s">
         <v>315</v>
@@ -15228,7 +15402,7 @@
         <v>108</v>
       </c>
       <c r="AF48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG48" s="0" t="s">
         <v>109</v>
@@ -15273,10 +15447,10 @@
         <v>101</v>
       </c>
       <c r="AX48" s="0" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="AY48" s="0" t="s">
-        <v>597</v>
+        <v>749</v>
       </c>
       <c r="AZ48" s="0" t="s">
         <v>180</v>
@@ -15306,16 +15480,16 @@
         <v>557</v>
       </c>
       <c r="BM48" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN48" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN48" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO48" s="0" t="s">
         <v>662</v>
       </c>
       <c r="BP48" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT48" s="0" t="s">
         <v>377</v>
@@ -15324,7 +15498,7 @@
         <v>122</v>
       </c>
       <c r="BV48" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW48" s="0" t="s">
         <v>98</v>
@@ -15482,10 +15656,10 @@
         <v>101</v>
       </c>
       <c r="AX49" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AY49" s="0" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="AZ49" s="0" t="s">
         <v>180</v>
@@ -15515,16 +15689,16 @@
         <v>557</v>
       </c>
       <c r="BM49" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN49" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN49" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO49" s="0" t="s">
         <v>662</v>
       </c>
       <c r="BP49" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT49" s="0" t="s">
         <v>377</v>
@@ -15533,7 +15707,7 @@
         <v>122</v>
       </c>
       <c r="BV49" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW49" s="0" t="s">
         <v>98</v>
@@ -16903,7 +17077,7 @@
         <v>823</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>382</v>
@@ -18417,7 +18591,7 @@
         <v>891</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>681</v>
@@ -18838,7 +19012,7 @@
         <v>729</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>517</v>
+        <v>108</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>87</v>
@@ -18847,25 +19021,25 @@
         <v>256</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>906</v>
       </c>
       <c r="I65" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="J65" s="0" t="s">
         <v>907</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="K65" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="K65" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>909</v>
-      </c>
       <c r="M65" s="0" t="s">
-        <v>265</v>
+        <v>764</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>86</v>
@@ -18892,7 +19066,7 @@
         <v>109</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>125</v>
+        <v>909</v>
       </c>
       <c r="Z65" s="0" t="s">
         <v>910</v>
@@ -18949,7 +19123,7 @@
         <v>86</v>
       </c>
       <c r="AT65" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AU65" s="0" t="s">
         <v>97</v>
@@ -18961,10 +19135,10 @@
         <v>101</v>
       </c>
       <c r="AX65" s="0" t="s">
-        <v>729</v>
+        <v>251</v>
       </c>
       <c r="AY65" s="0" t="s">
-        <v>851</v>
+        <v>368</v>
       </c>
       <c r="AZ65" s="0" t="s">
         <v>111</v>
@@ -18991,7 +19165,7 @@
         <v>912</v>
       </c>
       <c r="BL65" s="0" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="BM65" s="0" t="s">
         <v>913</v>
@@ -19000,7 +19174,7 @@
         <v>914</v>
       </c>
       <c r="BO65" s="0" t="s">
-        <v>915</v>
+        <v>729</v>
       </c>
       <c r="BP65" s="0" t="s">
         <v>273</v>
@@ -19012,7 +19186,7 @@
         <v>122</v>
       </c>
       <c r="BV65" s="0" t="s">
-        <v>274</v>
+        <v>421</v>
       </c>
       <c r="BW65" s="0" t="s">
         <v>98</v>
@@ -19039,7 +19213,7 @@
         <v>125</v>
       </c>
       <c r="CE65" s="0" t="s">
-        <v>868</v>
+        <v>830</v>
       </c>
       <c r="CF65" s="0">
         <v>0</v>
@@ -19053,7 +19227,7 @@
         <v>729</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>87</v>
@@ -19062,25 +19236,25 @@
         <v>256</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="G66" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>916</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>873</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>917</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>918</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>764</v>
+        <v>265</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>86</v>
@@ -19107,10 +19281,10 @@
         <v>109</v>
       </c>
       <c r="W66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z66" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="Z66" s="0" t="s">
-        <v>920</v>
       </c>
       <c r="AA66" s="0" t="s">
         <v>315</v>
@@ -19164,7 +19338,7 @@
         <v>86</v>
       </c>
       <c r="AT66" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AU66" s="0" t="s">
         <v>97</v>
@@ -19176,10 +19350,10 @@
         <v>101</v>
       </c>
       <c r="AX66" s="0" t="s">
-        <v>251</v>
+        <v>729</v>
       </c>
       <c r="AY66" s="0" t="s">
-        <v>368</v>
+        <v>851</v>
       </c>
       <c r="AZ66" s="0" t="s">
         <v>111</v>
@@ -19200,22 +19374,22 @@
         <v>113</v>
       </c>
       <c r="BF66" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="BG66" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="BG66" s="0" t="s">
+      <c r="BL66" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="BM66" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="BL66" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="BM66" s="0" t="s">
+      <c r="BN66" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="BN66" s="0" t="s">
+      <c r="BO66" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="BO66" s="0" t="s">
-        <v>729</v>
       </c>
       <c r="BP66" s="0" t="s">
         <v>273</v>
@@ -19227,7 +19401,7 @@
         <v>122</v>
       </c>
       <c r="BV66" s="0" t="s">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="BW66" s="0" t="s">
         <v>98</v>
@@ -19254,7 +19428,7 @@
         <v>125</v>
       </c>
       <c r="CE66" s="0" t="s">
-        <v>830</v>
+        <v>868</v>
       </c>
       <c r="CF66" s="0">
         <v>0</v>
@@ -20355,22 +20529,22 @@
         <v>954</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>90</v>
+        <v>955</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>400</v>
+        <v>761</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>86</v>
@@ -20400,16 +20574,16 @@
         <v>426</v>
       </c>
       <c r="Z72" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AA72" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB72" s="0" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="AC72" s="0" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="AD72" s="0" t="s">
         <v>108</v>
@@ -20484,25 +20658,25 @@
         <v>113</v>
       </c>
       <c r="BF72" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="BG72" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="BL72" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM72" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN72" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN72" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO72" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP72" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT72" s="0" t="s">
         <v>255</v>
@@ -20511,7 +20685,7 @@
         <v>122</v>
       </c>
       <c r="BV72" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW72" s="0" t="s">
         <v>98</v>
@@ -20564,25 +20738,25 @@
         <v>731</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>761</v>
+        <v>964</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>351</v>
+        <v>545</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>86</v>
@@ -20612,16 +20786,16 @@
         <v>426</v>
       </c>
       <c r="Z73" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AA73" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB73" s="0" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="AC73" s="0" t="s">
-        <v>179</v>
+        <v>967</v>
       </c>
       <c r="AD73" s="0" t="s">
         <v>108</v>
@@ -20672,10 +20846,10 @@
         <v>101</v>
       </c>
       <c r="AX73" s="0" t="s">
-        <v>506</v>
+        <v>968</v>
       </c>
       <c r="AY73" s="0" t="s">
-        <v>506</v>
+        <v>968</v>
       </c>
       <c r="AZ73" s="0" t="s">
         <v>180</v>
@@ -20696,25 +20870,25 @@
         <v>113</v>
       </c>
       <c r="BF73" s="0" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="BG73" s="0" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="BL73" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM73" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="BN73" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN73" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO73" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP73" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT73" s="0" t="s">
         <v>255</v>
@@ -20723,7 +20897,7 @@
         <v>122</v>
       </c>
       <c r="BV73" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW73" s="0" t="s">
         <v>98</v>
@@ -20764,7 +20938,7 @@
         <v>890</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>87</v>
@@ -20776,22 +20950,19 @@
         <v>731</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>969</v>
+        <v>476</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>545</v>
@@ -20824,16 +20995,16 @@
         <v>426</v>
       </c>
       <c r="Z74" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AA74" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB74" s="0" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="AC74" s="0" t="s">
-        <v>973</v>
+        <v>626</v>
       </c>
       <c r="AD74" s="0" t="s">
         <v>108</v>
@@ -20884,10 +21055,10 @@
         <v>101</v>
       </c>
       <c r="AX74" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="AY74" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="AZ74" s="0" t="s">
         <v>180</v>
@@ -20908,25 +21079,25 @@
         <v>113</v>
       </c>
       <c r="BF74" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="BG74" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="BL74" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM74" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="BN74" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO74" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP74" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT74" s="0" t="s">
         <v>255</v>
@@ -20935,7 +21106,7 @@
         <v>122</v>
       </c>
       <c r="BV74" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW74" s="0" t="s">
         <v>98</v>
@@ -20976,7 +21147,7 @@
         <v>890</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>369</v>
+        <v>545</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>87</v>
@@ -20988,22 +21159,22 @@
         <v>731</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>454</v>
+        <v>681</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>545</v>
+        <v>265</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>86</v>
@@ -21033,16 +21204,16 @@
         <v>426</v>
       </c>
       <c r="Z75" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="AA75" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB75" s="0" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="AC75" s="0" t="s">
-        <v>626</v>
+        <v>967</v>
       </c>
       <c r="AD75" s="0" t="s">
         <v>108</v>
@@ -21093,10 +21264,10 @@
         <v>101</v>
       </c>
       <c r="AX75" s="0" t="s">
-        <v>982</v>
+        <v>571</v>
       </c>
       <c r="AY75" s="0" t="s">
-        <v>982</v>
+        <v>571</v>
       </c>
       <c r="AZ75" s="0" t="s">
         <v>180</v>
@@ -21117,25 +21288,25 @@
         <v>113</v>
       </c>
       <c r="BF75" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="BG75" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="BL75" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM75" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="BN75" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO75" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP75" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT75" s="0" t="s">
         <v>255</v>
@@ -21144,7 +21315,7 @@
         <v>122</v>
       </c>
       <c r="BV75" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW75" s="0" t="s">
         <v>98</v>
@@ -21185,7 +21356,7 @@
         <v>890</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>87</v>
@@ -21197,22 +21368,22 @@
         <v>731</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>986</v>
+        <v>801</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>681</v>
+        <v>987</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>265</v>
+        <v>990</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>86</v>
@@ -21224,7 +21395,7 @@
         <v>98</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R76" s="0" t="s">
         <v>97</v>
@@ -21242,16 +21413,13 @@
         <v>426</v>
       </c>
       <c r="Z76" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="AA76" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB76" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC76" s="0" t="s">
-        <v>973</v>
+        <v>464</v>
       </c>
       <c r="AD76" s="0" t="s">
         <v>108</v>
@@ -21271,10 +21439,16 @@
       <c r="AJ76" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK76" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM76" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN76" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO76" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP76" s="0" t="s">
@@ -21302,10 +21476,10 @@
         <v>101</v>
       </c>
       <c r="AX76" s="0" t="s">
-        <v>571</v>
+        <v>852</v>
       </c>
       <c r="AY76" s="0" t="s">
-        <v>571</v>
+        <v>852</v>
       </c>
       <c r="AZ76" s="0" t="s">
         <v>180</v>
@@ -21326,25 +21500,25 @@
         <v>113</v>
       </c>
       <c r="BF76" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="BG76" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="BL76" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM76" s="0" t="s">
-        <v>992</v>
+        <v>740</v>
       </c>
       <c r="BN76" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO76" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP76" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT76" s="0" t="s">
         <v>255</v>
@@ -21353,7 +21527,7 @@
         <v>122</v>
       </c>
       <c r="BV76" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW76" s="0" t="s">
         <v>98</v>
@@ -21394,7 +21568,7 @@
         <v>890</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>591</v>
+        <v>265</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>87</v>
@@ -21406,22 +21580,25 @@
         <v>731</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>801</v>
+        <v>994</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>898</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>994</v>
+        <v>956</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>996</v>
+        <v>545</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>86</v>
@@ -21457,7 +21634,10 @@
         <v>315</v>
       </c>
       <c r="AB77" s="0" t="s">
-        <v>476</v>
+        <v>178</v>
+      </c>
+      <c r="AC77" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="AD77" s="0" t="s">
         <v>108</v>
@@ -21514,10 +21694,10 @@
         <v>101</v>
       </c>
       <c r="AX77" s="0" t="s">
-        <v>852</v>
+        <v>618</v>
       </c>
       <c r="AY77" s="0" t="s">
-        <v>852</v>
+        <v>618</v>
       </c>
       <c r="AZ77" s="0" t="s">
         <v>180</v>
@@ -21538,25 +21718,25 @@
         <v>113</v>
       </c>
       <c r="BF77" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="BG77" s="0" t="s">
         <v>998</v>
-      </c>
-      <c r="BG77" s="0" t="s">
-        <v>999</v>
       </c>
       <c r="BL77" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM77" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="BN77" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN77" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO77" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP77" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT77" s="0" t="s">
         <v>255</v>
@@ -21565,7 +21745,7 @@
         <v>122</v>
       </c>
       <c r="BV77" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW77" s="0" t="s">
         <v>98</v>
@@ -21606,7 +21786,7 @@
         <v>890</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>87</v>
@@ -21618,34 +21798,34 @@
         <v>731</v>
       </c>
       <c r="G78" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>589</v>
-      </c>
       <c r="J78" s="0" t="s">
-        <v>325</v>
+        <v>1001</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>1002</v>
+        <v>97</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>1003</v>
+        <v>98</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R78" s="0" t="s">
         <v>97</v>
@@ -21663,7 +21843,7 @@
         <v>426</v>
       </c>
       <c r="Z78" s="0" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AA78" s="0" t="s">
         <v>315</v>
@@ -21672,7 +21852,7 @@
         <v>178</v>
       </c>
       <c r="AC78" s="0" t="s">
-        <v>179</v>
+        <v>1004</v>
       </c>
       <c r="AD78" s="0" t="s">
         <v>108</v>
@@ -21692,16 +21872,10 @@
       <c r="AJ78" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK78" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM78" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN78" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO78" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP78" s="0" t="s">
@@ -21729,10 +21903,10 @@
         <v>101</v>
       </c>
       <c r="AX78" s="0" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AY78" s="0" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AZ78" s="0" t="s">
         <v>180</v>
@@ -21762,16 +21936,16 @@
         <v>830</v>
       </c>
       <c r="BM78" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN78" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN78" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO78" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP78" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT78" s="0" t="s">
         <v>255</v>
@@ -21780,7 +21954,7 @@
         <v>122</v>
       </c>
       <c r="BV78" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW78" s="0" t="s">
         <v>98</v>
@@ -21821,7 +21995,7 @@
         <v>890</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>87</v>
@@ -21833,22 +22007,22 @@
         <v>731</v>
       </c>
       <c r="G79" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="H79" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="I79" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="I79" s="0" t="s">
-        <v>399</v>
-      </c>
       <c r="J79" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="L79" s="0" t="s">
         <v>1009</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>1011</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>181</v>
@@ -21857,13 +22031,13 @@
         <v>86</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R79" s="0" t="s">
         <v>97</v>
@@ -21881,19 +22055,22 @@
         <v>426</v>
       </c>
       <c r="Z79" s="0" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AA79" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB79" s="0" t="s">
-        <v>476</v>
+        <v>106</v>
+      </c>
+      <c r="AC79" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="AD79" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF79" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="AG79" s="0" t="s">
         <v>109</v>
@@ -21902,21 +22079,15 @@
         <v>109</v>
       </c>
       <c r="AI79" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AJ79" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK79" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM79" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN79" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO79" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP79" s="0" t="s">
@@ -21944,10 +22115,10 @@
         <v>101</v>
       </c>
       <c r="AX79" s="0" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="AY79" s="0" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="AZ79" s="0" t="s">
         <v>180</v>
@@ -21968,25 +22139,25 @@
         <v>113</v>
       </c>
       <c r="BF79" s="0" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="BG79" s="0" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="BL79" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM79" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN79" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN79" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO79" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP79" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT79" s="0" t="s">
         <v>255</v>
@@ -21995,7 +22166,7 @@
         <v>122</v>
       </c>
       <c r="BV79" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW79" s="0" t="s">
         <v>98</v>
@@ -22048,37 +22219,37 @@
         <v>731</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>1016</v>
+        <v>361</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>1009</v>
+        <v>229</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>1017</v>
+        <v>703</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>1010</v>
+        <v>212</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="N80" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>97</v>
@@ -22096,13 +22267,16 @@
         <v>426</v>
       </c>
       <c r="Z80" s="0" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="AA80" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB80" s="0" t="s">
-        <v>476</v>
+        <v>178</v>
+      </c>
+      <c r="AC80" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="AD80" s="0" t="s">
         <v>108</v>
@@ -22117,21 +22291,15 @@
         <v>109</v>
       </c>
       <c r="AI80" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AJ80" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK80" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM80" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN80" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO80" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP80" s="0" t="s">
@@ -22159,10 +22327,10 @@
         <v>101</v>
       </c>
       <c r="AX80" s="0" t="s">
-        <v>654</v>
+        <v>968</v>
       </c>
       <c r="AY80" s="0" t="s">
-        <v>654</v>
+        <v>968</v>
       </c>
       <c r="AZ80" s="0" t="s">
         <v>180</v>
@@ -22183,25 +22351,25 @@
         <v>113</v>
       </c>
       <c r="BF80" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="BG80" s="0" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="BL80" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM80" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="BN80" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN80" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO80" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP80" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT80" s="0" t="s">
         <v>255</v>
@@ -22210,7 +22378,7 @@
         <v>122</v>
       </c>
       <c r="BV80" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW80" s="0" t="s">
         <v>98</v>
@@ -22251,7 +22419,7 @@
         <v>890</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>591</v>
+        <v>364</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>87</v>
@@ -22263,34 +22431,34 @@
         <v>731</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>871</v>
+        <v>1019</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>598</v>
+        <v>1020</v>
       </c>
       <c r="I81" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L81" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="J81" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>1022</v>
-      </c>
       <c r="M81" s="0" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="N81" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>173</v>
@@ -22311,13 +22479,16 @@
         <v>426</v>
       </c>
       <c r="Z81" s="0" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA81" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB81" s="0" t="s">
-        <v>476</v>
+        <v>106</v>
+      </c>
+      <c r="AC81" s="0" t="s">
+        <v>967</v>
       </c>
       <c r="AD81" s="0" t="s">
         <v>108</v>
@@ -22332,7 +22503,7 @@
         <v>109</v>
       </c>
       <c r="AI81" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AJ81" s="0" t="s">
         <v>109</v>
@@ -22374,10 +22545,10 @@
         <v>101</v>
       </c>
       <c r="AX81" s="0" t="s">
-        <v>689</v>
+        <v>968</v>
       </c>
       <c r="AY81" s="0" t="s">
-        <v>689</v>
+        <v>968</v>
       </c>
       <c r="AZ81" s="0" t="s">
         <v>180</v>
@@ -22398,25 +22569,25 @@
         <v>113</v>
       </c>
       <c r="BF81" s="0" t="s">
-        <v>1024</v>
+        <v>969</v>
       </c>
       <c r="BG81" s="0" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="BL81" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM81" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN81" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN81" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO81" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP81" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT81" s="0" t="s">
         <v>255</v>
@@ -22425,7 +22596,7 @@
         <v>122</v>
       </c>
       <c r="BV81" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW81" s="0" t="s">
         <v>98</v>
@@ -22466,7 +22637,7 @@
         <v>890</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>265</v>
+        <v>545</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>87</v>
@@ -22478,25 +22649,25 @@
         <v>731</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>898</v>
+        <v>1025</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>1027</v>
+        <v>93</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>962</v>
+        <v>476</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>86</v>
@@ -22526,7 +22697,7 @@
         <v>426</v>
       </c>
       <c r="Z82" s="0" t="s">
-        <v>1029</v>
+        <v>975</v>
       </c>
       <c r="AA82" s="0" t="s">
         <v>315</v>
@@ -22535,7 +22706,7 @@
         <v>178</v>
       </c>
       <c r="AC82" s="0" t="s">
-        <v>179</v>
+        <v>626</v>
       </c>
       <c r="AD82" s="0" t="s">
         <v>108</v>
@@ -22592,10 +22763,10 @@
         <v>101</v>
       </c>
       <c r="AX82" s="0" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="AY82" s="0" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="AZ82" s="0" t="s">
         <v>180</v>
@@ -22616,25 +22787,25 @@
         <v>113</v>
       </c>
       <c r="BF82" s="0" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="BG82" s="0" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="BL82" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM82" s="0" t="s">
-        <v>1031</v>
+        <v>740</v>
       </c>
       <c r="BN82" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO82" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP82" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT82" s="0" t="s">
         <v>255</v>
@@ -22643,7 +22814,7 @@
         <v>122</v>
       </c>
       <c r="BV82" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW82" s="0" t="s">
         <v>98</v>
@@ -22684,7 +22855,7 @@
         <v>890</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>87</v>
@@ -22696,22 +22867,25 @@
         <v>731</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>986</v>
+        <v>309</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>265</v>
+        <v>545</v>
       </c>
       <c r="N83" s="0" t="s">
         <v>86</v>
@@ -22741,7 +22915,7 @@
         <v>426</v>
       </c>
       <c r="Z83" s="0" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="AA83" s="0" t="s">
         <v>315</v>
@@ -22750,13 +22924,13 @@
         <v>178</v>
       </c>
       <c r="AC83" s="0" t="s">
-        <v>1036</v>
+        <v>179</v>
       </c>
       <c r="AD83" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF83" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AG83" s="0" t="s">
         <v>109</v>
@@ -22801,10 +22975,10 @@
         <v>101</v>
       </c>
       <c r="AX83" s="0" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="AY83" s="0" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="AZ83" s="0" t="s">
         <v>180</v>
@@ -22825,25 +22999,25 @@
         <v>113</v>
       </c>
       <c r="BF83" s="0" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="BG83" s="0" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="BL83" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM83" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN83" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN83" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO83" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP83" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT83" s="0" t="s">
         <v>255</v>
@@ -22852,7 +23026,7 @@
         <v>122</v>
       </c>
       <c r="BV83" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW83" s="0" t="s">
         <v>98</v>
@@ -22905,25 +23079,25 @@
         <v>731</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>1040</v>
+        <v>90</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>969</v>
+        <v>1008</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>970</v>
+        <v>400</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>369</v>
+        <v>214</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>86</v>
@@ -22935,7 +23109,7 @@
         <v>98</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>97</v>
@@ -22953,7 +23127,7 @@
         <v>426</v>
       </c>
       <c r="Z84" s="0" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="AA84" s="0" t="s">
         <v>315</v>
@@ -22962,7 +23136,7 @@
         <v>106</v>
       </c>
       <c r="AC84" s="0" t="s">
-        <v>973</v>
+        <v>158</v>
       </c>
       <c r="AD84" s="0" t="s">
         <v>108</v>
@@ -22982,16 +23156,10 @@
       <c r="AJ84" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK84" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM84" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN84" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO84" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP84" s="0" t="s">
@@ -23019,10 +23187,10 @@
         <v>101</v>
       </c>
       <c r="AX84" s="0" t="s">
-        <v>974</v>
+        <v>506</v>
       </c>
       <c r="AY84" s="0" t="s">
-        <v>974</v>
+        <v>506</v>
       </c>
       <c r="AZ84" s="0" t="s">
         <v>180</v>
@@ -23043,25 +23211,25 @@
         <v>113</v>
       </c>
       <c r="BF84" s="0" t="s">
-        <v>975</v>
+        <v>1011</v>
       </c>
       <c r="BG84" s="0" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="BL84" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM84" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN84" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN84" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO84" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP84" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT84" s="0" t="s">
         <v>255</v>
@@ -23070,7 +23238,7 @@
         <v>122</v>
       </c>
       <c r="BV84" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW84" s="0" t="s">
         <v>98</v>
@@ -23111,7 +23279,7 @@
         <v>890</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>87</v>
@@ -23123,22 +23291,19 @@
         <v>731</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>93</v>
+        <v>589</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>364</v>
@@ -23147,10 +23312,10 @@
         <v>86</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>97</v>
+        <v>1040</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>98</v>
+        <v>1041</v>
       </c>
       <c r="Q85" s="0" t="s">
         <v>173</v>
@@ -23171,7 +23336,7 @@
         <v>426</v>
       </c>
       <c r="Z85" s="0" t="s">
-        <v>981</v>
+        <v>1042</v>
       </c>
       <c r="AA85" s="0" t="s">
         <v>315</v>
@@ -23180,7 +23345,7 @@
         <v>178</v>
       </c>
       <c r="AC85" s="0" t="s">
-        <v>626</v>
+        <v>179</v>
       </c>
       <c r="AD85" s="0" t="s">
         <v>108</v>
@@ -23237,10 +23402,10 @@
         <v>101</v>
       </c>
       <c r="AX85" s="0" t="s">
-        <v>571</v>
+        <v>677</v>
       </c>
       <c r="AY85" s="0" t="s">
-        <v>571</v>
+        <v>677</v>
       </c>
       <c r="AZ85" s="0" t="s">
         <v>180</v>
@@ -23261,25 +23426,25 @@
         <v>113</v>
       </c>
       <c r="BF85" s="0" t="s">
-        <v>983</v>
+        <v>1043</v>
       </c>
       <c r="BG85" s="0" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="BL85" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM85" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN85" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN85" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO85" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP85" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT85" s="0" t="s">
         <v>255</v>
@@ -23288,7 +23453,7 @@
         <v>122</v>
       </c>
       <c r="BV85" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW85" s="0" t="s">
         <v>98</v>
@@ -23329,7 +23494,7 @@
         <v>890</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>87</v>
@@ -23341,19 +23506,19 @@
         <v>731</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>309</v>
+        <v>1045</v>
       </c>
       <c r="H86" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K86" s="0" t="s">
         <v>1048</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="L86" s="0" t="s">
         <v>1049</v>
@@ -23365,13 +23530,13 @@
         <v>86</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R86" s="0" t="s">
         <v>97</v>
@@ -23395,16 +23560,13 @@
         <v>315</v>
       </c>
       <c r="AB86" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC86" s="0" t="s">
-        <v>158</v>
+        <v>464</v>
       </c>
       <c r="AD86" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF86" s="0" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="AG86" s="0" t="s">
         <v>109</v>
@@ -23413,15 +23575,21 @@
         <v>109</v>
       </c>
       <c r="AI86" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AJ86" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK86" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM86" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN86" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO86" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP86" s="0" t="s">
@@ -23449,10 +23617,10 @@
         <v>101</v>
       </c>
       <c r="AX86" s="0" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="AY86" s="0" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="AZ86" s="0" t="s">
         <v>180</v>
@@ -23473,25 +23641,25 @@
         <v>113</v>
       </c>
       <c r="BF86" s="0" t="s">
-        <v>958</v>
+        <v>1051</v>
       </c>
       <c r="BG86" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="BL86" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM86" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN86" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN86" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO86" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP86" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT86" s="0" t="s">
         <v>255</v>
@@ -23500,7 +23668,7 @@
         <v>122</v>
       </c>
       <c r="BV86" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW86" s="0" t="s">
         <v>98</v>
@@ -23553,37 +23721,37 @@
         <v>731</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>309</v>
+        <v>1053</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>91</v>
+        <v>1054</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>212</v>
+        <v>1048</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>545</v>
+        <v>265</v>
       </c>
       <c r="N87" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>97</v>
@@ -23601,22 +23769,19 @@
         <v>426</v>
       </c>
       <c r="Z87" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="AA87" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB87" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC87" s="0" t="s">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="AD87" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF87" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AG87" s="0" t="s">
         <v>109</v>
@@ -23625,15 +23790,21 @@
         <v>109</v>
       </c>
       <c r="AI87" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AJ87" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK87" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM87" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN87" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO87" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP87" s="0" t="s">
@@ -23685,25 +23856,25 @@
         <v>113</v>
       </c>
       <c r="BF87" s="0" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="BG87" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="BL87" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM87" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN87" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN87" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO87" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP87" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT87" s="0" t="s">
         <v>255</v>
@@ -23712,7 +23883,7 @@
         <v>122</v>
       </c>
       <c r="BV87" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW87" s="0" t="s">
         <v>98</v>
@@ -23753,7 +23924,7 @@
         <v>890</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>364</v>
+        <v>591</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>87</v>
@@ -23765,37 +23936,37 @@
         <v>731</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>1058</v>
+        <v>871</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>361</v>
+        <v>598</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>229</v>
+        <v>1059</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>212</v>
+        <v>1048</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N88" s="0" t="s">
         <v>86</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>97</v>
@@ -23813,16 +23984,13 @@
         <v>426</v>
       </c>
       <c r="Z88" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AA88" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB88" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC88" s="0" t="s">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="AD88" s="0" t="s">
         <v>108</v>
@@ -23837,15 +24005,21 @@
         <v>109</v>
       </c>
       <c r="AI88" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AJ88" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK88" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM88" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN88" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO88" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP88" s="0" t="s">
@@ -23873,10 +24047,10 @@
         <v>101</v>
       </c>
       <c r="AX88" s="0" t="s">
-        <v>974</v>
+        <v>689</v>
       </c>
       <c r="AY88" s="0" t="s">
-        <v>974</v>
+        <v>689</v>
       </c>
       <c r="AZ88" s="0" t="s">
         <v>180</v>
@@ -23897,25 +24071,25 @@
         <v>113</v>
       </c>
       <c r="BF88" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="BG88" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="BL88" s="0" t="s">
         <v>830</v>
       </c>
       <c r="BM88" s="0" t="s">
-        <v>1063</v>
+        <v>740</v>
       </c>
       <c r="BN88" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO88" s="0" t="s">
         <v>890</v>
       </c>
       <c r="BP88" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT88" s="0" t="s">
         <v>255</v>
@@ -23924,7 +24098,7 @@
         <v>122</v>
       </c>
       <c r="BV88" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW88" s="0" t="s">
         <v>98</v>
@@ -23980,7 +24154,7 @@
         <v>925</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>1064</v>
@@ -23995,7 +24169,7 @@
         <v>1066</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>86</v>
@@ -24398,13 +24572,16 @@
         <v>87</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>89</v>
+        <v>678</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>91</v>
+        <v>309</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>1081</v>
@@ -24413,13 +24590,13 @@
         <v>1082</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="L91" s="0" t="s">
         <v>1083</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>364</v>
+        <v>900</v>
       </c>
       <c r="N91" s="0" t="s">
         <v>86</v>
@@ -24449,7 +24626,7 @@
         <v>426</v>
       </c>
       <c r="Y91" s="0" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="Z91" s="0" t="s">
         <v>1084</v>
@@ -24461,13 +24638,13 @@
         <v>106</v>
       </c>
       <c r="AC91" s="0" t="s">
-        <v>445</v>
+        <v>107</v>
       </c>
       <c r="AD91" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF91" s="0" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="AG91" s="0" t="s">
         <v>109</v>
@@ -24481,10 +24658,16 @@
       <c r="AJ91" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK91" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM91" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN91" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO91" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP91" s="0" t="s">
@@ -24515,7 +24698,7 @@
         <v>830</v>
       </c>
       <c r="AY91" s="0" t="s">
-        <v>915</v>
+        <v>1085</v>
       </c>
       <c r="AZ91" s="0" t="s">
         <v>111</v>
@@ -24536,34 +24719,34 @@
         <v>113</v>
       </c>
       <c r="BF91" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="BG91" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="BL91" s="0" t="s">
-        <v>868</v>
+        <v>112</v>
       </c>
       <c r="BM91" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="BN91" s="0" t="s">
-        <v>449</v>
+        <v>1089</v>
       </c>
       <c r="BO91" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="BP91" s="0" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="BT91" s="0" t="s">
-        <v>141</v>
+        <v>790</v>
       </c>
       <c r="BU91" s="0" t="s">
         <v>122</v>
       </c>
       <c r="BV91" s="0" t="s">
-        <v>451</v>
+        <v>690</v>
       </c>
       <c r="BW91" s="0" t="s">
         <v>98</v>
@@ -24590,7 +24773,7 @@
         <v>125</v>
       </c>
       <c r="CE91" s="0" t="s">
-        <v>868</v>
+        <v>1090</v>
       </c>
       <c r="CF91" s="0">
         <v>0</v>
@@ -24610,31 +24793,28 @@
         <v>87</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>678</v>
+        <v>89</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>900</v>
+        <v>364</v>
       </c>
       <c r="N92" s="0" t="s">
         <v>86</v>
@@ -24664,10 +24844,10 @@
         <v>426</v>
       </c>
       <c r="Y92" s="0" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="Z92" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="AA92" s="0" t="s">
         <v>315</v>
@@ -24676,13 +24856,13 @@
         <v>106</v>
       </c>
       <c r="AC92" s="0" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="AD92" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF92" s="0" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="AG92" s="0" t="s">
         <v>109</v>
@@ -24696,16 +24876,10 @@
       <c r="AJ92" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK92" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM92" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN92" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO92" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AP92" s="0" t="s">
@@ -24736,7 +24910,7 @@
         <v>830</v>
       </c>
       <c r="AY92" s="0" t="s">
-        <v>1093</v>
+        <v>924</v>
       </c>
       <c r="AZ92" s="0" t="s">
         <v>111</v>
@@ -24757,34 +24931,34 @@
         <v>113</v>
       </c>
       <c r="BF92" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="BG92" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="BL92" s="0" t="s">
-        <v>112</v>
+        <v>868</v>
       </c>
       <c r="BM92" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BN92" s="0" t="s">
-        <v>1097</v>
+        <v>449</v>
       </c>
       <c r="BO92" s="0" t="s">
         <v>1098</v>
       </c>
       <c r="BP92" s="0" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="BT92" s="0" t="s">
-        <v>790</v>
+        <v>141</v>
       </c>
       <c r="BU92" s="0" t="s">
         <v>122</v>
       </c>
       <c r="BV92" s="0" t="s">
-        <v>690</v>
+        <v>451</v>
       </c>
       <c r="BW92" s="0" t="s">
         <v>98</v>
@@ -24811,7 +24985,7 @@
         <v>125</v>
       </c>
       <c r="CE92" s="0" t="s">
-        <v>1098</v>
+        <v>868</v>
       </c>
       <c r="CF92" s="0">
         <v>0</v>
@@ -24822,7 +24996,7 @@
         <v>84</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>214</v>
@@ -24843,7 +25017,7 @@
         <v>513</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>1099</v>
@@ -24855,7 +25029,7 @@
         <v>1100</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>86</v>
@@ -24987,7 +25161,7 @@
         <v>644</v>
       </c>
       <c r="BO93" s="0" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="BP93" s="0" t="s">
         <v>645</v>
@@ -25530,7 +25704,7 @@
         <v>86</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Y96" s="0" t="s">
         <v>1126</v>
@@ -25709,7 +25883,7 @@
         <v>1131</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>1132</v>
@@ -25856,10 +26030,10 @@
         <v>1140</v>
       </c>
       <c r="BN97" s="0" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="BO97" s="0" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="BP97" s="0" t="s">
         <v>434</v>
@@ -25898,7 +26072,7 @@
         <v>125</v>
       </c>
       <c r="CE97" s="0" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="CF97" s="0">
         <v>0</v>
@@ -26369,7 +26543,7 @@
         <v>1165</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>94</v>
@@ -26590,7 +26764,7 @@
         <v>1179</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>1010</v>
+        <v>1048</v>
       </c>
       <c r="L101" s="0" t="s">
         <v>1180</v>
@@ -26805,10 +26979,10 @@
         <v>1192</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>212</v>
@@ -26943,13 +27117,13 @@
         <v>1197</v>
       </c>
       <c r="BN102" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BO102" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="BP102" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT102" s="0" t="s">
         <v>255</v>
@@ -26958,7 +27132,7 @@
         <v>122</v>
       </c>
       <c r="BV102" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW102" s="0" t="s">
         <v>98</v>
@@ -27014,10 +27188,10 @@
         <v>1198</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>212</v>
@@ -27155,16 +27329,16 @@
         <v>1157</v>
       </c>
       <c r="BM103" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN103" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN103" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO103" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="BP103" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT103" s="0" t="s">
         <v>255</v>
@@ -27173,7 +27347,7 @@
         <v>122</v>
       </c>
       <c r="BV103" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW103" s="0" t="s">
         <v>98</v>
@@ -27229,10 +27403,10 @@
         <v>1202</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>212</v>
@@ -27364,16 +27538,16 @@
         <v>1157</v>
       </c>
       <c r="BM104" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="BN104" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="BN104" s="0" t="s">
-        <v>742</v>
       </c>
       <c r="BO104" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="BP104" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BT104" s="0" t="s">
         <v>255</v>
@@ -27382,7 +27556,7 @@
         <v>122</v>
       </c>
       <c r="BV104" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW104" s="0" t="s">
         <v>98</v>
@@ -27859,25 +28033,28 @@
         <v>1157</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>364</v>
+        <v>1230</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>1230</v>
+        <v>88</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>801</v>
+        <v>587</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>513</v>
       </c>
       <c r="I107" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J107" s="0" t="s">
         <v>1231</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>1081</v>
       </c>
       <c r="K107" s="0" t="s">
         <v>212</v>
@@ -27886,7 +28063,7 @@
         <v>1232</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>86</v>
@@ -27898,7 +28075,7 @@
         <v>98</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R107" s="0" t="s">
         <v>97</v>
@@ -27913,28 +28090,28 @@
         <v>86</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="Y107" s="0" t="s">
-        <v>246</v>
+        <v>1233</v>
       </c>
       <c r="Z107" s="0" t="s">
-        <v>547</v>
+        <v>1234</v>
       </c>
       <c r="AA107" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB107" s="0" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="AC107" s="0" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="AD107" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF107" s="0" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="AG107" s="0" t="s">
         <v>109</v>
@@ -27948,18 +28125,12 @@
       <c r="AJ107" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK107" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM107" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN107" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AO107" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AP107" s="0" t="s">
         <v>109</v>
       </c>
@@ -27973,7 +28144,7 @@
         <v>86</v>
       </c>
       <c r="AT107" s="0" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="AU107" s="0" t="s">
         <v>97</v>
@@ -27985,10 +28156,10 @@
         <v>101</v>
       </c>
       <c r="AX107" s="0" t="s">
-        <v>709</v>
+        <v>1157</v>
       </c>
       <c r="AY107" s="0" t="s">
-        <v>677</v>
+        <v>1235</v>
       </c>
       <c r="AZ107" s="0" t="s">
         <v>111</v>
@@ -28009,25 +28180,25 @@
         <v>113</v>
       </c>
       <c r="BF107" s="0" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="BG107" s="0" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="BL107" s="0" t="s">
         <v>819</v>
       </c>
       <c r="BM107" s="0" t="s">
-        <v>1235</v>
+        <v>117</v>
       </c>
       <c r="BN107" s="0" t="s">
-        <v>1236</v>
+        <v>118</v>
       </c>
       <c r="BO107" s="0" t="s">
-        <v>1157</v>
+        <v>1238</v>
       </c>
       <c r="BP107" s="0" t="s">
-        <v>1237</v>
+        <v>120</v>
       </c>
       <c r="BT107" s="0" t="s">
         <v>377</v>
@@ -28036,7 +28207,7 @@
         <v>122</v>
       </c>
       <c r="BV107" s="0" t="s">
-        <v>1238</v>
+        <v>123</v>
       </c>
       <c r="BW107" s="0" t="s">
         <v>98</v>
@@ -28077,28 +28248,25 @@
         <v>1157</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>1239</v>
+        <v>364</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>88</v>
+        <v>1239</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>513</v>
+        <v>801</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>93</v>
+        <v>1240</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>1240</v>
+        <v>1091</v>
       </c>
       <c r="K108" s="0" t="s">
         <v>212</v>
@@ -28107,7 +28275,7 @@
         <v>1241</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>86</v>
@@ -28119,7 +28287,7 @@
         <v>98</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R108" s="0" t="s">
         <v>97</v>
@@ -28134,28 +28302,28 @@
         <v>86</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Y108" s="0" t="s">
-        <v>1242</v>
+        <v>246</v>
       </c>
       <c r="Z108" s="0" t="s">
-        <v>1243</v>
+        <v>547</v>
       </c>
       <c r="AA108" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB108" s="0" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="AC108" s="0" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="AD108" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF108" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="AG108" s="0" t="s">
         <v>109</v>
@@ -28169,12 +28337,18 @@
       <c r="AJ108" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK108" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM108" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN108" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AO108" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AP108" s="0" t="s">
         <v>109</v>
       </c>
@@ -28188,7 +28362,7 @@
         <v>86</v>
       </c>
       <c r="AT108" s="0" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="AU108" s="0" t="s">
         <v>97</v>
@@ -28200,10 +28374,10 @@
         <v>101</v>
       </c>
       <c r="AX108" s="0" t="s">
-        <v>1157</v>
+        <v>709</v>
       </c>
       <c r="AY108" s="0" t="s">
-        <v>1244</v>
+        <v>677</v>
       </c>
       <c r="AZ108" s="0" t="s">
         <v>111</v>
@@ -28224,25 +28398,25 @@
         <v>113</v>
       </c>
       <c r="BF108" s="0" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="BG108" s="0" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="BL108" s="0" t="s">
         <v>819</v>
       </c>
       <c r="BM108" s="0" t="s">
-        <v>117</v>
+        <v>1244</v>
       </c>
       <c r="BN108" s="0" t="s">
-        <v>118</v>
+        <v>1245</v>
       </c>
       <c r="BO108" s="0" t="s">
-        <v>1247</v>
+        <v>1157</v>
       </c>
       <c r="BP108" s="0" t="s">
-        <v>120</v>
+        <v>1246</v>
       </c>
       <c r="BT108" s="0" t="s">
         <v>377</v>
@@ -28251,7 +28425,7 @@
         <v>122</v>
       </c>
       <c r="BV108" s="0" t="s">
-        <v>123</v>
+        <v>1247</v>
       </c>
       <c r="BW108" s="0" t="s">
         <v>98</v>
@@ -28292,7 +28466,7 @@
         <v>1248</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>87</v>
@@ -28510,7 +28684,7 @@
         <v>84</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>181</v>
@@ -28525,13 +28699,13 @@
         <v>89</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>1258</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="K110" s="0" t="s">
         <v>94</v>
@@ -28678,7 +28852,7 @@
         <v>449</v>
       </c>
       <c r="BO110" s="0" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="BP110" s="0" t="s">
         <v>450</v>
@@ -28728,7 +28902,7 @@
         <v>84</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>351</v>
@@ -28887,13 +29061,13 @@
         <v>1272</v>
       </c>
       <c r="BN111" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="BO111" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BP111" s="0" t="s">
         <v>742</v>
-      </c>
-      <c r="BO111" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="BP111" s="0" t="s">
-        <v>743</v>
       </c>
       <c r="BT111" s="0" t="s">
         <v>1273</v>
@@ -28902,7 +29076,7 @@
         <v>122</v>
       </c>
       <c r="BV111" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="BW111" s="0" t="s">
         <v>98</v>
@@ -28943,7 +29117,7 @@
         <v>1274</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>87</v>
@@ -28961,7 +29135,7 @@
         <v>93</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K112" s="0" t="s">
         <v>281</v>
@@ -29161,7 +29335,7 @@
         <v>1274</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>87</v>
@@ -29191,7 +29365,7 @@
         <v>1286</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="N113" s="0" t="s">
         <v>86</v>
@@ -29323,7 +29497,7 @@
         <v>1292</v>
       </c>
       <c r="BN113" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="BO113" s="0" t="s">
         <v>821</v>
@@ -29379,7 +29553,7 @@
         <v>821</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>87</v>
@@ -29508,7 +29682,7 @@
         <v>821</v>
       </c>
       <c r="AY114" s="0" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="AZ114" s="0" t="s">
         <v>111</v>
@@ -29597,7 +29771,7 @@
         <v>1302</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>87</v>
@@ -29812,7 +29986,7 @@
         <v>1302</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>87</v>
@@ -30033,7 +30207,7 @@
         <v>1321</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>87</v>
@@ -30254,7 +30428,7 @@
         <v>1331</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>87</v>
@@ -30487,7 +30661,7 @@
         <v>181</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>1343</v>
@@ -30711,7 +30885,7 @@
         <v>93</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="K120" s="0" t="s">
         <v>212</v>
@@ -30750,10 +30924,10 @@
         <v>102</v>
       </c>
       <c r="Y120" s="0" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="Z120" s="0" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="AA120" s="0" t="s">
         <v>315</v>
@@ -30837,7 +31011,7 @@
         <v>113</v>
       </c>
       <c r="BF120" s="0" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="BG120" s="0" t="s">
         <v>1351</v>
@@ -31028,7 +31202,7 @@
         <v>1302</v>
       </c>
       <c r="AY121" s="0" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="AZ121" s="0" t="s">
         <v>111</v>
@@ -31132,7 +31306,7 @@
         <v>309</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>1048</v>
+        <v>1007</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>1361</v>
@@ -31571,7 +31745,7 @@
         <v>488</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="K124" s="0" t="s">
         <v>212</v>
@@ -31777,7 +31951,7 @@
         <v>87</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>214</v>
@@ -31903,7 +32077,7 @@
         <v>541</v>
       </c>
       <c r="AY125" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="AZ125" s="0" t="s">
         <v>111</v>
@@ -31933,7 +32107,7 @@
         <v>1104</v>
       </c>
       <c r="BM125" s="0" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="BN125" s="0" t="s">
         <v>1395</v>
@@ -31942,7 +32116,7 @@
         <v>1379</v>
       </c>
       <c r="BP125" s="0" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="BT125" s="0" t="s">
         <v>377</v>
@@ -31951,7 +32125,7 @@
         <v>122</v>
       </c>
       <c r="BV125" s="0" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="BW125" s="0" t="s">
         <v>98</v>
@@ -31998,7 +32172,7 @@
         <v>87</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>214</v>
@@ -32124,7 +32298,7 @@
         <v>541</v>
       </c>
       <c r="AY126" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="AZ126" s="0" t="s">
         <v>111</v>
@@ -32154,7 +32328,7 @@
         <v>112</v>
       </c>
       <c r="BM126" s="0" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="BN126" s="0" t="s">
         <v>1395</v>
@@ -32163,7 +32337,7 @@
         <v>1378</v>
       </c>
       <c r="BP126" s="0" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="BT126" s="0" t="s">
         <v>790</v>
@@ -32172,7 +32346,7 @@
         <v>122</v>
       </c>
       <c r="BV126" s="0" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="BW126" s="0" t="s">
         <v>98</v>
@@ -32219,7 +32393,7 @@
         <v>87</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="F127" s="0" t="s">
         <v>214</v>
@@ -32231,13 +32405,13 @@
         <v>1396</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L127" s="0" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="M127" s="0" t="s">
         <v>517</v>
@@ -32363,16 +32537,16 @@
         <v>113</v>
       </c>
       <c r="BF127" s="0" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="BG127" s="0" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="BL127" s="0" t="s">
         <v>112</v>
       </c>
       <c r="BM127" s="0" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="BN127" s="0" t="s">
         <v>1395</v>
@@ -32381,7 +32555,7 @@
         <v>1378</v>
       </c>
       <c r="BP127" s="0" t="s">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="BT127" s="0" t="s">
         <v>790</v>
@@ -32390,7 +32564,7 @@
         <v>122</v>
       </c>
       <c r="BV127" s="0" t="s">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="BW127" s="0" t="s">
         <v>98</v>
@@ -33306,7 +33480,7 @@
         <v>1415</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>900</v>
+        <v>764</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>87</v>
@@ -33378,7 +33552,7 @@
         <v>108</v>
       </c>
       <c r="AF132" s="0" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="AG132" s="0" t="s">
         <v>109</v>
@@ -33459,7 +33633,7 @@
         <v>1440</v>
       </c>
       <c r="BL132" s="0" t="s">
-        <v>112</v>
+        <v>1281</v>
       </c>
       <c r="BM132" s="0" t="s">
         <v>1441</v>
@@ -33474,7 +33648,7 @@
         <v>273</v>
       </c>
       <c r="BT132" s="0" t="s">
-        <v>790</v>
+        <v>377</v>
       </c>
       <c r="BU132" s="0" t="s">
         <v>122</v>
@@ -33507,7 +33681,7 @@
         <v>125</v>
       </c>
       <c r="CE132" s="0" t="s">
-        <v>1443</v>
+        <v>1281</v>
       </c>
       <c r="CF132" s="0">
         <v>0</v>
@@ -33521,7 +33695,7 @@
         <v>1415</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>764</v>
+        <v>900</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>87</v>
@@ -33593,7 +33767,7 @@
         <v>108</v>
       </c>
       <c r="AF133" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="AG133" s="0" t="s">
         <v>109</v>
@@ -33674,7 +33848,7 @@
         <v>1440</v>
       </c>
       <c r="BL133" s="0" t="s">
-        <v>1281</v>
+        <v>112</v>
       </c>
       <c r="BM133" s="0" t="s">
         <v>1441</v>
@@ -33689,7 +33863,7 @@
         <v>273</v>
       </c>
       <c r="BT133" s="0" t="s">
-        <v>377</v>
+        <v>790</v>
       </c>
       <c r="BU133" s="0" t="s">
         <v>122</v>
@@ -33722,7 +33896,7 @@
         <v>125</v>
       </c>
       <c r="CE133" s="0" t="s">
-        <v>1281</v>
+        <v>1445</v>
       </c>
       <c r="CF133" s="0">
         <v>0</v>
@@ -33733,7 +33907,7 @@
         <v>84</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>900</v>
@@ -33859,7 +34033,7 @@
         <v>815</v>
       </c>
       <c r="AX134" s="0" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AY134" s="0" t="s">
         <v>1424</v>
@@ -33898,7 +34072,7 @@
         <v>320</v>
       </c>
       <c r="BO134" s="0" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="BP134" s="0" t="s">
         <v>273</v>
@@ -33937,7 +34111,7 @@
         <v>125</v>
       </c>
       <c r="CE134" s="0" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="CF134" s="0">
         <v>0</v>
@@ -33951,34 +34125,37 @@
         <v>1104</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>764</v>
+        <v>900</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>379</v>
+        <v>88</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>1380</v>
+        <v>1456</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>1206</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>1456</v>
+        <v>280</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>1457</v>
+        <v>339</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>764</v>
+        <v>245</v>
       </c>
       <c r="N135" s="0" t="s">
         <v>86</v>
@@ -34005,19 +34182,19 @@
         <v>154</v>
       </c>
       <c r="X135" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Z135" s="0" t="s">
         <v>1459</v>
       </c>
-      <c r="Z135" s="0" t="s">
-        <v>1460</v>
-      </c>
       <c r="AA135" s="0" t="s">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="AB135" s="0" t="s">
         <v>106</v>
       </c>
       <c r="AC135" s="0" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="AD135" s="0" t="s">
         <v>108</v>
@@ -34074,13 +34251,13 @@
         <v>101</v>
       </c>
       <c r="AX135" s="0" t="s">
-        <v>1407</v>
+        <v>1104</v>
       </c>
       <c r="AY135" s="0" t="s">
-        <v>1397</v>
+        <v>1445</v>
       </c>
       <c r="AZ135" s="0" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="BA135" s="0" t="s">
         <v>109</v>
@@ -34098,34 +34275,34 @@
         <v>113</v>
       </c>
       <c r="BF135" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BG135" s="0" t="s">
         <v>1461</v>
       </c>
-      <c r="BG135" s="0" t="s">
-        <v>1462</v>
-      </c>
       <c r="BL135" s="0" t="s">
-        <v>1281</v>
+        <v>112</v>
       </c>
       <c r="BM135" s="0" t="s">
-        <v>1463</v>
+        <v>494</v>
       </c>
       <c r="BN135" s="0" t="s">
-        <v>1464</v>
+        <v>570</v>
       </c>
       <c r="BO135" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="BP135" s="0" t="s">
-        <v>394</v>
+        <v>120</v>
       </c>
       <c r="BT135" s="0" t="s">
-        <v>377</v>
+        <v>790</v>
       </c>
       <c r="BU135" s="0" t="s">
         <v>122</v>
       </c>
       <c r="BV135" s="0" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
       <c r="BW135" s="0" t="s">
         <v>98</v>
@@ -34152,7 +34329,7 @@
         <v>125</v>
       </c>
       <c r="CE135" s="0" t="s">
-        <v>1281</v>
+        <v>1104</v>
       </c>
       <c r="CF135" s="0">
         <v>0</v>
@@ -34181,19 +34358,19 @@
         <v>338</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K136" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L136" s="0" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="M136" s="0" t="s">
         <v>1181</v>
@@ -34229,7 +34406,7 @@
         <v>1126</v>
       </c>
       <c r="Z136" s="0" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="AA136" s="0" t="s">
         <v>1224</v>
@@ -34295,10 +34472,10 @@
         <v>101</v>
       </c>
       <c r="AX136" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AY136" s="0" t="s">
         <v>1443</v>
-      </c>
-      <c r="AY136" s="0" t="s">
-        <v>1445</v>
       </c>
       <c r="AZ136" s="0" t="s">
         <v>180</v>
@@ -34319,19 +34496,19 @@
         <v>113</v>
       </c>
       <c r="BF136" s="0" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="BG136" s="0" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="BL136" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="BM136" s="0" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="BN136" s="0" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="BO136" s="0" t="s">
         <v>1104</v>
@@ -34387,37 +34564,34 @@
         <v>1104</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>900</v>
+        <v>764</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>91</v>
+        <v>1380</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>340</v>
+        <v>1470</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="K137" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>471</v>
+        <v>764</v>
       </c>
       <c r="N137" s="0" t="s">
         <v>86</v>
@@ -34429,7 +34603,7 @@
         <v>98</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R137" s="0" t="s">
         <v>97</v>
@@ -34438,31 +34612,31 @@
         <v>100</v>
       </c>
       <c r="T137" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="U137" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y137" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="X137" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Z137" s="0" t="s">
         <v>1474</v>
       </c>
-      <c r="Z137" s="0" t="s">
-        <v>1475</v>
-      </c>
       <c r="AA137" s="0" t="s">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="AB137" s="0" t="s">
         <v>106</v>
       </c>
       <c r="AC137" s="0" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="AD137" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF137" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="AG137" s="0" t="s">
         <v>109</v>
@@ -34476,12 +34650,18 @@
       <c r="AJ137" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AK137" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AM137" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN137" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="AO137" s="0" t="s">
+        <v>109</v>
+      </c>
       <c r="AP137" s="0" t="s">
         <v>109</v>
       </c>
@@ -34495,7 +34675,7 @@
         <v>86</v>
       </c>
       <c r="AT137" s="0" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="AU137" s="0" t="s">
         <v>97</v>
@@ -34504,16 +34684,16 @@
         <v>100</v>
       </c>
       <c r="AW137" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AX137" s="0" t="s">
-        <v>1104</v>
+        <v>1407</v>
       </c>
       <c r="AY137" s="0" t="s">
-        <v>1443</v>
+        <v>1397</v>
       </c>
       <c r="AZ137" s="0" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="BA137" s="0" t="s">
         <v>109</v>
@@ -34531,25 +34711,25 @@
         <v>113</v>
       </c>
       <c r="BF137" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BG137" s="0" t="s">
         <v>1476</v>
-      </c>
-      <c r="BG137" s="0" t="s">
-        <v>1477</v>
       </c>
       <c r="BL137" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="BM137" s="0" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BN137" s="0" t="s">
-        <v>223</v>
+        <v>1469</v>
       </c>
       <c r="BO137" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="BP137" s="0" t="s">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="BT137" s="0" t="s">
         <v>377</v>
@@ -34558,7 +34738,7 @@
         <v>122</v>
       </c>
       <c r="BV137" s="0" t="s">
-        <v>226</v>
+        <v>395</v>
       </c>
       <c r="BW137" s="0" t="s">
         <v>98</v>
@@ -34567,7 +34747,7 @@
         <v>124</v>
       </c>
       <c r="BY137" s="0" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="BZ137" s="0" t="s">
         <v>98</v>
@@ -34576,7 +34756,7 @@
         <v>124</v>
       </c>
       <c r="CB137" s="0" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="CC137" s="0" t="s">
         <v>124</v>
@@ -34605,31 +34785,31 @@
         <v>87</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>89</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>1479</v>
+        <v>361</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>1206</v>
+        <v>91</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>339</v>
+        <v>1478</v>
       </c>
       <c r="K138" s="0" t="s">
         <v>94</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="N138" s="0" t="s">
         <v>86</v>
@@ -34641,7 +34821,7 @@
         <v>98</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R138" s="0" t="s">
         <v>97</v>
@@ -34650,31 +34830,31 @@
         <v>100</v>
       </c>
       <c r="T138" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U138" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="X138" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y138" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Z138" s="0" t="s">
         <v>1481</v>
       </c>
-      <c r="Z138" s="0" t="s">
-        <v>1482</v>
-      </c>
       <c r="AA138" s="0" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
       <c r="AB138" s="0" t="s">
         <v>106</v>
       </c>
       <c r="AC138" s="0" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="AD138" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF138" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AG138" s="0" t="s">
         <v>109</v>
@@ -34688,18 +34868,12 @@
       <c r="AJ138" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AK138" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AM138" s="0" t="s">
         <v>109</v>
       </c>
       <c r="AN138" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AO138" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="AP138" s="0" t="s">
         <v>109</v>
       </c>
@@ -34713,7 +34887,7 @@
         <v>86</v>
       </c>
       <c r="AT138" s="0" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="AU138" s="0" t="s">
         <v>97</v>
@@ -34722,13 +34896,13 @@
         <v>100</v>
       </c>
       <c r="AW138" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AX138" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="AY138" s="0" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="AZ138" s="0" t="s">
         <v>111</v>
@@ -34749,34 +34923,34 @@
         <v>113</v>
       </c>
       <c r="BF138" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BG138" s="0" t="s">
         <v>1483</v>
       </c>
-      <c r="BG138" s="0" t="s">
+      <c r="BL138" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BM138" s="0" t="s">
         <v>1484</v>
       </c>
-      <c r="BL138" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM138" s="0" t="s">
-        <v>494</v>
-      </c>
       <c r="BN138" s="0" t="s">
-        <v>570</v>
+        <v>223</v>
       </c>
       <c r="BO138" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="BP138" s="0" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="BT138" s="0" t="s">
-        <v>790</v>
+        <v>377</v>
       </c>
       <c r="BU138" s="0" t="s">
         <v>122</v>
       </c>
       <c r="BV138" s="0" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="BW138" s="0" t="s">
         <v>98</v>
@@ -34785,7 +34959,7 @@
         <v>124</v>
       </c>
       <c r="BY138" s="0" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="BZ138" s="0" t="s">
         <v>98</v>
@@ -34794,7 +34968,7 @@
         <v>124</v>
       </c>
       <c r="CB138" s="0" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="CC138" s="0" t="s">
         <v>124</v>
@@ -34803,7 +34977,7 @@
         <v>125</v>
       </c>
       <c r="CE138" s="0" t="s">
-        <v>1104</v>
+        <v>1281</v>
       </c>
       <c r="CF138" s="0">
         <v>0</v>
@@ -34835,7 +35009,7 @@
         <v>126</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="J139" s="0" t="s">
         <v>1486</v>
@@ -36143,31 +36317,34 @@
         <v>87</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>207</v>
+        <v>1536</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>1536</v>
+        <v>361</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>1537</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>488</v>
+        <v>872</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="L145" s="0" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>705</v>
+        <v>369</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="O145" s="0" t="s">
         <v>97</v>
@@ -36176,43 +36353,43 @@
         <v>98</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="R145" s="0" t="s">
         <v>97</v>
       </c>
       <c r="S145" s="0" t="s">
-        <v>100</v>
+        <v>1540</v>
       </c>
       <c r="T145" s="0" t="s">
-        <v>97</v>
+        <v>1541</v>
       </c>
       <c r="U145" s="0" t="s">
         <v>86</v>
       </c>
       <c r="V145" s="0" t="s">
-        <v>205</v>
+        <v>1542</v>
       </c>
       <c r="Y145" s="0" t="s">
-        <v>1539</v>
+        <v>102</v>
       </c>
       <c r="Z145" s="0" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="AA145" s="0" t="s">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="AB145" s="0" t="s">
-        <v>1541</v>
+        <v>178</v>
       </c>
       <c r="AC145" s="0" t="s">
-        <v>218</v>
+        <v>1544</v>
       </c>
       <c r="AD145" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF145" s="0" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="AG145" s="0" t="s">
         <v>109</v>
@@ -36260,16 +36437,16 @@
         <v>100</v>
       </c>
       <c r="AW145" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AX145" s="0" t="s">
-        <v>1367</v>
+        <v>1535</v>
       </c>
       <c r="AY145" s="0" t="s">
-        <v>1505</v>
+        <v>1535</v>
       </c>
       <c r="AZ145" s="0" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="BA145" s="0" t="s">
         <v>109</v>
@@ -36287,25 +36464,25 @@
         <v>113</v>
       </c>
       <c r="BF145" s="0" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="BG145" s="0" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="BL145" s="0" t="s">
         <v>112</v>
       </c>
       <c r="BM145" s="0" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="BN145" s="0" t="s">
-        <v>223</v>
+        <v>1548</v>
       </c>
       <c r="BO145" s="0" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="BP145" s="0" t="s">
-        <v>224</v>
+        <v>1549</v>
       </c>
       <c r="BT145" s="0" t="s">
         <v>790</v>
@@ -36314,16 +36491,16 @@
         <v>122</v>
       </c>
       <c r="BV145" s="0" t="s">
-        <v>226</v>
+        <v>1550</v>
       </c>
       <c r="BW145" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BX145" s="0" t="s">
-        <v>124</v>
+        <v>1551</v>
       </c>
       <c r="BY145" s="0" t="s">
-        <v>205</v>
+        <v>1552</v>
       </c>
       <c r="BZ145" s="0" t="s">
         <v>98</v>
@@ -36332,16 +36509,16 @@
         <v>124</v>
       </c>
       <c r="CB145" s="0" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="CC145" s="0" t="s">
-        <v>124</v>
+        <v>1551</v>
       </c>
       <c r="CD145" s="0" t="s">
-        <v>125</v>
+        <v>1552</v>
       </c>
       <c r="CE145" s="0" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="CF145" s="0">
         <v>0</v>
@@ -36361,28 +36538,28 @@
         <v>87</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>89</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>986</v>
+        <v>1553</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>1032</v>
+        <v>488</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>127</v>
+        <v>1554</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="L146" s="0" t="s">
-        <v>1545</v>
+        <v>1555</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>108</v>
+        <v>705</v>
       </c>
       <c r="N146" s="0" t="s">
         <v>86</v>
@@ -36394,7 +36571,7 @@
         <v>98</v>
       </c>
       <c r="Q146" s="0" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="R146" s="0" t="s">
         <v>97</v>
@@ -36403,34 +36580,34 @@
         <v>100</v>
       </c>
       <c r="T146" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U146" s="0" t="s">
         <v>86</v>
       </c>
       <c r="V146" s="0" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="Y146" s="0" t="s">
-        <v>1546</v>
+        <v>1556</v>
       </c>
       <c r="Z146" s="0" t="s">
-        <v>1547</v>
+        <v>1557</v>
       </c>
       <c r="AA146" s="0" t="s">
         <v>315</v>
       </c>
       <c r="AB146" s="0" t="s">
-        <v>178</v>
+        <v>1558</v>
       </c>
       <c r="AC146" s="0" t="s">
-        <v>367</v>
+        <v>218</v>
       </c>
       <c r="AD146" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF146" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="AG146" s="0" t="s">
         <v>109</v>
@@ -36478,13 +36655,13 @@
         <v>100</v>
       </c>
       <c r="AW146" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AX146" s="0" t="s">
-        <v>1535</v>
+        <v>1367</v>
       </c>
       <c r="AY146" s="0" t="s">
-        <v>1367</v>
+        <v>1505</v>
       </c>
       <c r="AZ146" s="0" t="s">
         <v>111</v>
@@ -36505,25 +36682,25 @@
         <v>113</v>
       </c>
       <c r="BF146" s="0" t="s">
-        <v>1548</v>
+        <v>1559</v>
       </c>
       <c r="BG146" s="0" t="s">
-        <v>1549</v>
+        <v>1560</v>
       </c>
       <c r="BL146" s="0" t="s">
         <v>112</v>
       </c>
       <c r="BM146" s="0" t="s">
-        <v>494</v>
+        <v>1561</v>
       </c>
       <c r="BN146" s="0" t="s">
-        <v>570</v>
+        <v>223</v>
       </c>
       <c r="BO146" s="0" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="BP146" s="0" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="BT146" s="0" t="s">
         <v>790</v>
@@ -36532,7 +36709,7 @@
         <v>122</v>
       </c>
       <c r="BV146" s="0" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="BW146" s="0" t="s">
         <v>98</v>
@@ -36541,7 +36718,7 @@
         <v>124</v>
       </c>
       <c r="BY146" s="0" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="BZ146" s="0" t="s">
         <v>98</v>
@@ -36550,7 +36727,7 @@
         <v>124</v>
       </c>
       <c r="CB146" s="0" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="CC146" s="0" t="s">
         <v>124</v>
@@ -36559,7 +36736,7 @@
         <v>125</v>
       </c>
       <c r="CE146" s="0" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="CF146" s="0">
         <v>0</v>
@@ -36579,34 +36756,31 @@
         <v>87</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1550</v>
+        <v>88</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="H147" s="0" t="s">
-        <v>1551</v>
+        <v>980</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>872</v>
+        <v>1000</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>1552</v>
+        <v>127</v>
       </c>
       <c r="K147" s="0" t="s">
         <v>281</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>1553</v>
+        <v>1562</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="O147" s="0" t="s">
         <v>97</v>
@@ -36621,37 +36795,37 @@
         <v>97</v>
       </c>
       <c r="S147" s="0" t="s">
-        <v>1554</v>
+        <v>100</v>
       </c>
       <c r="T147" s="0" t="s">
-        <v>1555</v>
+        <v>101</v>
       </c>
       <c r="U147" s="0" t="s">
         <v>86</v>
       </c>
       <c r="V147" s="0" t="s">
-        <v>1556</v>
+        <v>102</v>
       </c>
       <c r="Y147" s="0" t="s">
-        <v>102</v>
+        <v>1563</v>
       </c>
       <c r="Z147" s="0" t="s">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="AA147" s="0" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="AB147" s="0" t="s">
         <v>178</v>
       </c>
       <c r="AC147" s="0" t="s">
-        <v>1558</v>
+        <v>367</v>
       </c>
       <c r="AD147" s="0" t="s">
         <v>108</v>
       </c>
       <c r="AF147" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AG147" s="0" t="s">
         <v>109</v>
@@ -36705,10 +36879,10 @@
         <v>1535</v>
       </c>
       <c r="AY147" s="0" t="s">
-        <v>1535</v>
+        <v>1367</v>
       </c>
       <c r="AZ147" s="0" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="BA147" s="0" t="s">
         <v>109</v>
@@ -36726,25 +36900,25 @@
         <v>113</v>
       </c>
       <c r="BF147" s="0" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="BG147" s="0" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="BL147" s="0" t="s">
         <v>112</v>
       </c>
       <c r="BM147" s="0" t="s">
-        <v>1561</v>
+        <v>494</v>
       </c>
       <c r="BN147" s="0" t="s">
-        <v>1562</v>
+        <v>570</v>
       </c>
       <c r="BO147" s="0" t="s">
         <v>1534</v>
       </c>
       <c r="BP147" s="0" t="s">
-        <v>1563</v>
+        <v>120</v>
       </c>
       <c r="BT147" s="0" t="s">
         <v>790</v>
@@ -36753,16 +36927,16 @@
         <v>122</v>
       </c>
       <c r="BV147" s="0" t="s">
-        <v>1564</v>
+        <v>123</v>
       </c>
       <c r="BW147" s="0" t="s">
         <v>98</v>
       </c>
       <c r="BX147" s="0" t="s">
-        <v>1565</v>
+        <v>124</v>
       </c>
       <c r="BY147" s="0" t="s">
-        <v>1566</v>
+        <v>125</v>
       </c>
       <c r="BZ147" s="0" t="s">
         <v>98</v>
@@ -36774,10 +36948,10 @@
         <v>125</v>
       </c>
       <c r="CC147" s="0" t="s">
-        <v>1565</v>
+        <v>124</v>
       </c>
       <c r="CD147" s="0" t="s">
-        <v>1566</v>
+        <v>125</v>
       </c>
       <c r="CE147" s="0" t="s">
         <v>1534</v>
@@ -37042,7 +37216,7 @@
         <v>1577</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="N149" s="0" t="s">
         <v>86</v>
@@ -37890,7 +38064,7 @@
         <v>1600</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>87</v>
@@ -37902,7 +38076,7 @@
         <v>89</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="I153" s="0" t="s">
         <v>1608</v>
@@ -38108,7 +38282,7 @@
         <v>1617</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>87</v>
@@ -38320,7 +38494,7 @@
         <v>1626</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>87</v>
@@ -38350,7 +38524,7 @@
         <v>1631</v>
       </c>
       <c r="M155" s="0" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="N155" s="0" t="s">
         <v>86</v>
@@ -38530,6 +38704,1329 @@
         <v>1637</v>
       </c>
       <c r="CF155" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L156" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P156" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T156" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V156" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y156" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Z156" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AA156" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB156" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC156" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD156" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU156" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV156" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW156" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX156" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AY156" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AZ156" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA156" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB156" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC156" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD156" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE156" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF156" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="BG156" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="BL156" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM156" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="BN156" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BO156" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BP156" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT156" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU156" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV156" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW156" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX156" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY156" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ156" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA156" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB156" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC156" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD156" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE156" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CF156" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L157" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M157" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="N157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P157" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q157" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T157" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V157" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y157" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="Z157" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AA157" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB157" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC157" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD157" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU157" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV157" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW157" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX157" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AY157" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AZ157" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA157" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB157" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BC157" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD157" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="BE157" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF157" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="BG157" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="BH157" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BI157" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BL157" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM157" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BN157" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BO157" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BP157" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT157" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU157" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV157" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="BW157" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX157" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY157" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ157" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA157" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB157" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC157" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD157" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE157" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CF157" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L158" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="M158" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="N158" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O158" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P158" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q158" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S158" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T158" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U158" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V158" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Y158" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Z158" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AA158" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AB158" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC158" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD158" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF158" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS158" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT158" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU158" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV158" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW158" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX158" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AY158" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AZ158" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA158" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB158" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC158" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD158" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE158" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF158" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="BG158" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BL158" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM158" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="BN158" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BO158" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BP158" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT158" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU158" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV158" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="BW158" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX158" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY158" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ158" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA158" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB158" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC158" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD158" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE158" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="CF158" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="L159" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="M159" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N159" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O159" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="P159" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q159" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S159" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T159" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U159" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V159" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y159" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Z159" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AA159" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB159" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC159" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD159" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS159" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT159" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU159" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV159" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW159" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX159" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AY159" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AZ159" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA159" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB159" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC159" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD159" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE159" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF159" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="BG159" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="BL159" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM159" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN159" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="BO159" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="BP159" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BT159" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU159" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV159" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW159" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX159" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY159" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ159" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA159" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB159" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC159" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD159" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE159" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="CF159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="L160" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M160" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O160" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P160" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q160" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="R160" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S160" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T160" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V160" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y160" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z160" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AA160" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB160" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC160" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD160" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF160" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU160" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV160" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW160" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX160" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AY160" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AZ160" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA160" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB160" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC160" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD160" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE160" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF160" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BG160" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="BL160" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM160" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="BN160" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="BO160" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BP160" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT160" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU160" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV160" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="BW160" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY160" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ160" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB160" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD160" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE160" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CF160" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="L161" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="M161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P161" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q161" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="R161" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="S161" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="T161" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V161" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Y161" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Z161" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AA161" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB161" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC161" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD161" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF161" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU161" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV161" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW161" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX161" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AY161" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AZ161" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA161" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB161" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC161" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD161" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE161" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF161" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="BG161" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BL161" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM161" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="BN161" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BO161" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BP161" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="BT161" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="BU161" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV161" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="BW161" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX161" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BY161" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ161" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA161" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CB161" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC161" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD161" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE161" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="CF161" s="0">
         <v>0</v>
       </c>
     </row>
